--- a/data/day_ahead/test_in.xlsx
+++ b/data/day_ahead/test_in.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\與資工合作\1081007- 風力發電單值預測\day_ahead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wind_forecasting\my_day_ahead\pif_basic_new_ANN_one\wind_data_in_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -361,34 +361,34 @@
         <v>2017</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>2</v>
       </c>
       <c r="E1">
-        <v>2.7476833453271357E-2</v>
+        <v>0.47503386504823975</v>
       </c>
       <c r="F1">
-        <v>0.60046768201135425</v>
+        <v>0.43290820676881736</v>
       </c>
       <c r="G1">
-        <v>0.28831747182799161</v>
+        <v>0.44040593077548162</v>
       </c>
       <c r="H1">
-        <v>0.1312989085519583</v>
+        <v>0.35138805755581692</v>
       </c>
       <c r="I1">
-        <v>0.5315202694169624</v>
+        <v>0.43749869423063592</v>
       </c>
       <c r="J1">
-        <v>0.26562443270471803</v>
+        <v>0.38987316890945367</v>
       </c>
       <c r="K1">
-        <v>0.84021079051001268</v>
+        <v>0.94885897349552906</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -396,34 +396,34 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0.60046768201135425</v>
+        <v>0.43290820676881736</v>
       </c>
       <c r="F2">
-        <v>0.55194833221021555</v>
+        <v>0.47812118426640382</v>
       </c>
       <c r="G2">
-        <v>0.5315202694169624</v>
+        <v>0.43749869423063592</v>
       </c>
       <c r="H2">
-        <v>0.26562443270471803</v>
+        <v>0.38987316890945367</v>
       </c>
       <c r="I2">
-        <v>0.56095207414914772</v>
+        <v>0.41756408893163932</v>
       </c>
       <c r="J2">
-        <v>0.45246262392914371</v>
+        <v>0.36948446513900018</v>
       </c>
       <c r="K2">
-        <v>0.89514580015247691</v>
+        <v>0.94218869149355999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -431,34 +431,34 @@
         <v>2017</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0.55194833221021555</v>
+        <v>0.47812118426640382</v>
       </c>
       <c r="F3">
-        <v>0.64770912200464636</v>
+        <v>0.49481708161726456</v>
       </c>
       <c r="G3">
-        <v>0.56095207414914772</v>
+        <v>0.41756408893163932</v>
       </c>
       <c r="H3">
-        <v>0.45246262392914371</v>
+        <v>0.36948446513900018</v>
       </c>
       <c r="I3">
-        <v>0.60369503779721123</v>
+        <v>0.47372694788325709</v>
       </c>
       <c r="J3">
-        <v>0.4253586599902881</v>
+        <v>0.42552725397647079</v>
       </c>
       <c r="K3">
-        <v>0.94398216018149661</v>
+        <v>0.93084126356345742</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -466,34 +466,34 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.64770912200464636</v>
+        <v>0.49481708161726456</v>
       </c>
       <c r="F4">
-        <v>0.53302702247468225</v>
+        <v>0.6771720285954006</v>
       </c>
       <c r="G4">
-        <v>0.60369503779721123</v>
+        <v>0.47372694788325709</v>
       </c>
       <c r="H4">
-        <v>0.4253586599902881</v>
+        <v>0.42552725397647079</v>
       </c>
       <c r="I4">
-        <v>0.55853969333693687</v>
+        <v>0.57751003545828639</v>
       </c>
       <c r="J4">
-        <v>0.36127549093141631</v>
+        <v>0.50906648307731861</v>
       </c>
       <c r="K4">
-        <v>0.94162104188348639</v>
+        <v>0.91491606456863794</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -501,34 +501,34 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0.53302702247468225</v>
+        <v>0.6771720285954006</v>
       </c>
       <c r="F5">
-        <v>0.62957104731263203</v>
+        <v>0.68895258876997378</v>
       </c>
       <c r="G5">
-        <v>0.55853969333693687</v>
+        <v>0.57751003545828639</v>
       </c>
       <c r="H5">
-        <v>0.36127549093141631</v>
+        <v>0.50906648307731861</v>
       </c>
       <c r="I5">
-        <v>0.53662218015931906</v>
+        <v>0.58503890339929709</v>
       </c>
       <c r="J5">
-        <v>0.37645378095330989</v>
+        <v>0.50355380656323889</v>
       </c>
       <c r="K5">
-        <v>0.92684419422953335</v>
+        <v>0.91343911074176698</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -536,34 +536,34 @@
         <v>2017</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0.62957104731263203</v>
+        <v>0.68895258876997378</v>
       </c>
       <c r="F6">
-        <v>0.42473447198395048</v>
+        <v>0.59909535047288387</v>
       </c>
       <c r="G6">
-        <v>0.53662218015931906</v>
+        <v>0.58503890339929709</v>
       </c>
       <c r="H6">
-        <v>0.37645378095330989</v>
+        <v>0.50355380656323889</v>
       </c>
       <c r="I6">
-        <v>0.42639958629917762</v>
+        <v>0.54765324058736375</v>
       </c>
       <c r="J6">
-        <v>0.29309033089209069</v>
+        <v>0.46567067480576402</v>
       </c>
       <c r="K6">
-        <v>0.87607082242919865</v>
+        <v>0.92905831619443746</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -571,34 +571,34 @@
         <v>2017</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>0.42473447198395048</v>
+        <v>0.59909535047288387</v>
       </c>
       <c r="F7">
-        <v>0.45903192231066869</v>
+        <v>0.53657713630506221</v>
       </c>
       <c r="G7">
-        <v>0.42639958629917762</v>
+        <v>0.54765324058736375</v>
       </c>
       <c r="H7">
-        <v>0.29309033089209069</v>
+        <v>0.46567067480576402</v>
       </c>
       <c r="I7">
-        <v>0.39702355251153093</v>
+        <v>0.47171490807351013</v>
       </c>
       <c r="J7">
-        <v>0.27329573816371255</v>
+        <v>0.38440254706909943</v>
       </c>
       <c r="K7">
-        <v>0.89623640668444882</v>
+        <v>0.93930539524680789</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -606,34 +606,34 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>0.45903192231066869</v>
+        <v>0.53657713630506221</v>
       </c>
       <c r="F8">
-        <v>0.34620485314693328</v>
+        <v>0.47722748659798792</v>
       </c>
       <c r="G8">
-        <v>0.39702355251153093</v>
+        <v>0.47171490807351013</v>
       </c>
       <c r="H8">
-        <v>0.27329573816371255</v>
+        <v>0.38440254706909943</v>
       </c>
       <c r="I8">
-        <v>0.38990958868376813</v>
+        <v>0.44611503092667559</v>
       </c>
       <c r="J8">
-        <v>0.25595442213014657</v>
+        <v>0.33814842197359007</v>
       </c>
       <c r="K8">
-        <v>0.89087127723091775</v>
+        <v>0.94768366016928984</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -641,34 +641,34 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.34620485314693328</v>
+        <v>0.47722748659798792</v>
       </c>
       <c r="F9">
-        <v>0.3716847257995109</v>
+        <v>0.4975387972438039</v>
       </c>
       <c r="G9">
-        <v>0.38990958868376813</v>
+        <v>0.44611503092667559</v>
       </c>
       <c r="H9">
-        <v>0.25595442213014657</v>
+        <v>0.33814842197359007</v>
       </c>
       <c r="I9">
-        <v>0.27521739727383143</v>
+        <v>0.40540236834655607</v>
       </c>
       <c r="J9">
-        <v>0.10332380211864617</v>
+        <v>0.30773209040510002</v>
       </c>
       <c r="K9">
-        <v>0.84960088037146808</v>
+        <v>0.95383892459830655</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,34 +676,34 @@
         <v>2017</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0.3716847257995109</v>
+        <v>0.4975387972438039</v>
       </c>
       <c r="F10">
-        <v>0.318808115782586</v>
+        <v>0.555141674235338</v>
       </c>
       <c r="G10">
-        <v>0.27521739727383143</v>
+        <v>0.40540236834655607</v>
       </c>
       <c r="H10">
-        <v>0.10332380211864617</v>
+        <v>0.30773209040510002</v>
       </c>
       <c r="I10">
-        <v>0.36427696310884838</v>
+        <v>0.4193212287369571</v>
       </c>
       <c r="J10">
-        <v>0.25144206368763339</v>
+        <v>0.32881231622113305</v>
       </c>
       <c r="K10">
-        <v>0.87126262289277978</v>
+        <v>0.95500029643353379</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -711,34 +711,34 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0.318808115782586</v>
+        <v>0.555141674235338</v>
       </c>
       <c r="F11">
-        <v>0.26855328201659773</v>
+        <v>0.5408831341619752</v>
       </c>
       <c r="G11">
-        <v>0.36427696310884838</v>
+        <v>0.4193212287369571</v>
       </c>
       <c r="H11">
-        <v>0.25144206368763339</v>
+        <v>0.32881231622113305</v>
       </c>
       <c r="I11">
-        <v>0.3230160222399362</v>
+        <v>0.44808612986456403</v>
       </c>
       <c r="J11">
-        <v>0.23151204331208325</v>
+        <v>0.268065561196974</v>
       </c>
       <c r="K11">
-        <v>0.79662167062422906</v>
+        <v>0.94088152472411524</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -746,34 +746,34 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0.26855328201659773</v>
+        <v>0.5408831341619752</v>
       </c>
       <c r="F12">
-        <v>0.28200019102690482</v>
+        <v>0.46252209769041713</v>
       </c>
       <c r="G12">
-        <v>0.3230160222399362</v>
+        <v>0.44808612986456403</v>
       </c>
       <c r="H12">
-        <v>0.23151204331208325</v>
+        <v>0.268065561196974</v>
       </c>
       <c r="I12">
-        <v>0.26833503604927744</v>
+        <v>0.45528221358235699</v>
       </c>
       <c r="J12">
-        <v>0.15832469325576609</v>
+        <v>0.26573851724162734</v>
       </c>
       <c r="K12">
-        <v>0.83634606410974111</v>
+        <v>0.94001828275824906</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,34 +781,34 @@
         <v>2017</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13">
-        <v>0.28200019102690482</v>
+        <v>0.46252209769041713</v>
       </c>
       <c r="F13">
-        <v>0.29935090838569772</v>
+        <v>0.49940743782321895</v>
       </c>
       <c r="G13">
-        <v>0.26833503604927744</v>
+        <v>0.45528221358235699</v>
       </c>
       <c r="H13">
-        <v>0.15832469325576609</v>
+        <v>0.26573851724162734</v>
       </c>
       <c r="I13">
-        <v>0.24829427976270124</v>
+        <v>0.4582653833383793</v>
       </c>
       <c r="J13">
-        <v>0.1390548803733791</v>
+        <v>0.3473335795325922</v>
       </c>
       <c r="K13">
-        <v>0.75935774538848477</v>
+        <v>0.93090515612408264</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,34 +816,34 @@
         <v>2017</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>0.29935090838569772</v>
+        <v>0.49940743782321895</v>
       </c>
       <c r="F14">
-        <v>0.24516341024330454</v>
+        <v>0.48368648338335735</v>
       </c>
       <c r="G14">
-        <v>0.24829427976270124</v>
+        <v>0.4582653833383793</v>
       </c>
       <c r="H14">
-        <v>0.1390548803733791</v>
+        <v>0.3473335795325922</v>
       </c>
       <c r="I14">
-        <v>0.19648153542773683</v>
+        <v>0.44834346763153571</v>
       </c>
       <c r="J14">
-        <v>0.14142425540491591</v>
+        <v>0.344979802741752</v>
       </c>
       <c r="K14">
-        <v>0.79748597487463257</v>
+        <v>0.93530973541647466</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -851,34 +851,34 @@
         <v>2017</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0.24516341024330454</v>
+        <v>0.48368648338335735</v>
       </c>
       <c r="F15">
-        <v>0.22472922018686917</v>
+        <v>0.38543254926528708</v>
       </c>
       <c r="G15">
-        <v>0.19648153542773683</v>
+        <v>0.44834346763153571</v>
       </c>
       <c r="H15">
-        <v>0.14142425540491591</v>
+        <v>0.344979802741752</v>
       </c>
       <c r="I15">
-        <v>0.15425656455811765</v>
+        <v>0.35628352069661684</v>
       </c>
       <c r="J15">
-        <v>3.6639711572728675E-2</v>
+        <v>0.24099439239985215</v>
       </c>
       <c r="K15">
-        <v>0.63279107941969781</v>
+        <v>0.94094126725488292</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -886,34 +886,34 @@
         <v>2017</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>0.22472922018686917</v>
+        <v>0.38543254926528708</v>
       </c>
       <c r="F16">
-        <v>0.1139014615289581</v>
+        <v>0.33087230660849615</v>
       </c>
       <c r="G16">
-        <v>0.15425656455811765</v>
+        <v>0.35628352069661684</v>
       </c>
       <c r="H16">
-        <v>3.6639711572728675E-2</v>
+        <v>0.24099439239985215</v>
       </c>
       <c r="I16">
-        <v>0.17305390947531449</v>
+        <v>0.32401753930679988</v>
       </c>
       <c r="J16">
-        <v>7.1718541375541484E-2</v>
+        <v>0.18117906763586245</v>
       </c>
       <c r="K16">
-        <v>0.65308077298184997</v>
+        <v>0.91057611865142452</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -921,34 +921,34 @@
         <v>2017</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.1139014615289581</v>
+        <v>0.33087230660849615</v>
       </c>
       <c r="F17">
-        <v>3.7571908706288216E-2</v>
+        <v>0.28734923015664166</v>
       </c>
       <c r="G17">
-        <v>0.17305390947531449</v>
+        <v>0.32401753930679988</v>
       </c>
       <c r="H17">
-        <v>7.1718541375541484E-2</v>
+        <v>0.18117906763586245</v>
       </c>
       <c r="I17">
-        <v>8.5732082046802383E-2</v>
+        <v>0.34667138645499979</v>
       </c>
       <c r="J17">
-        <v>4.584335561152518E-2</v>
+        <v>0.20261835054827521</v>
       </c>
       <c r="K17">
-        <v>0.38254478385681923</v>
+        <v>0.94074565149756151</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -956,34 +956,34 @@
         <v>2017</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>3.7571908706288216E-2</v>
+        <v>0.28734923015664166</v>
       </c>
       <c r="F18">
-        <v>3.7438758748890029E-2</v>
+        <v>8.5422304240197353E-2</v>
       </c>
       <c r="G18">
-        <v>8.5732082046802383E-2</v>
+        <v>0.34667138645499979</v>
       </c>
       <c r="H18">
-        <v>4.584335561152518E-2</v>
+        <v>0.20261835054827521</v>
       </c>
       <c r="I18">
-        <v>7.6279465575258679E-2</v>
+        <v>0.14787900592250863</v>
       </c>
       <c r="J18">
-        <v>2.7360871628443473E-2</v>
+        <v>7.9462708601374749E-2</v>
       </c>
       <c r="K18">
-        <v>0.58237042321550803</v>
+        <v>0.67234663805870509</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -991,34 +991,34 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>3.7438758748890029E-2</v>
+        <v>8.5422304240197353E-2</v>
       </c>
       <c r="F19">
-        <v>8.1388962643522161E-2</v>
+        <v>1.6882598918317088E-2</v>
       </c>
       <c r="G19">
-        <v>7.6279465575258679E-2</v>
+        <v>0.14787900592250863</v>
       </c>
       <c r="H19">
-        <v>2.7360871628443473E-2</v>
+        <v>7.9462708601374749E-2</v>
       </c>
       <c r="I19">
-        <v>0.10843655999818327</v>
+        <v>0.14270251560160166</v>
       </c>
       <c r="J19">
-        <v>2.0160830070906077E-2</v>
+        <v>4.7740866768503754E-2</v>
       </c>
       <c r="K19">
-        <v>0.59982786308596081</v>
+        <v>0.44465850605226187</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1026,34 +1026,34 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20">
-        <v>8.1388962643522161E-2</v>
+        <v>1.6882598918317088E-2</v>
       </c>
       <c r="F20">
-        <v>0.1318416663152415</v>
+        <v>7.9934188103697859E-2</v>
       </c>
       <c r="G20">
-        <v>0.10843655999818327</v>
+        <v>0.14270251560160166</v>
       </c>
       <c r="H20">
-        <v>2.0160830070906077E-2</v>
+        <v>4.7740866768503754E-2</v>
       </c>
       <c r="I20">
-        <v>0.16406624838638062</v>
+        <v>0.16834046289204238</v>
       </c>
       <c r="J20">
-        <v>6.1003311177378172E-2</v>
+        <v>6.5446583134745273E-2</v>
       </c>
       <c r="K20">
-        <v>0.73202942732551857</v>
+        <v>0.42845330191022102</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,34 +1061,34 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21">
-        <v>0.1318416663152415</v>
+        <v>7.9934188103697859E-2</v>
       </c>
       <c r="F21">
-        <v>0.144027154676513</v>
+        <v>0.32253248245732408</v>
       </c>
       <c r="G21">
-        <v>0.16406624838638062</v>
+        <v>0.16834046289204238</v>
       </c>
       <c r="H21">
-        <v>6.1003311177378172E-2</v>
+        <v>6.5446583134745273E-2</v>
       </c>
       <c r="I21">
-        <v>0.20900475428967766</v>
+        <v>0.23377568541754434</v>
       </c>
       <c r="J21">
-        <v>0.11001777836909146</v>
+        <v>0.10197161060237947</v>
       </c>
       <c r="K21">
-        <v>0.8562016208448503</v>
+        <v>0.32911380886583053</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1096,34 +1096,34 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>0.144027154676513</v>
+        <v>0.32253248245732408</v>
       </c>
       <c r="F22">
-        <v>0.1993235487489407</v>
+        <v>0.29515689796889333</v>
       </c>
       <c r="G22">
-        <v>0.20900475428967766</v>
+        <v>0.23377568541754434</v>
       </c>
       <c r="H22">
-        <v>0.11001777836909146</v>
+        <v>0.10197161060237947</v>
       </c>
       <c r="I22">
-        <v>0.22663074408802339</v>
+        <v>0.24362565881637216</v>
       </c>
       <c r="J22">
-        <v>0.11539078289652435</v>
+        <v>7.8846443042867587E-2</v>
       </c>
       <c r="K22">
-        <v>0.8609006049881005</v>
+        <v>0.42248190322545565</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,34 +1131,34 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23">
-        <v>0.1993235487489407</v>
+        <v>0.29515689796889333</v>
       </c>
       <c r="F23">
-        <v>0.13174273136237594</v>
+        <v>0.21974912606523686</v>
       </c>
       <c r="G23">
-        <v>0.22663074408802339</v>
+        <v>0.24362565881637216</v>
       </c>
       <c r="H23">
-        <v>0.11539078289652435</v>
+        <v>7.8846443042867587E-2</v>
       </c>
       <c r="I23">
-        <v>0.16049775011982609</v>
+        <v>0.13603617832190115</v>
       </c>
       <c r="J23">
-        <v>4.1342355226852964E-2</v>
+        <v>4.0607059751640015E-2</v>
       </c>
       <c r="K23">
-        <v>0.84013406113605393</v>
+        <v>0.40250745796116094</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1166,34 +1166,34 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>0.13174273136237594</v>
+        <v>0.21974912606523686</v>
       </c>
       <c r="F24">
-        <v>0.20892023917689745</v>
+        <v>0.13074496281527115</v>
       </c>
       <c r="G24">
-        <v>0.16049775011982609</v>
+        <v>0.13603617832190115</v>
       </c>
       <c r="H24">
-        <v>4.1342355226852964E-2</v>
+        <v>4.0607059751640015E-2</v>
       </c>
       <c r="I24">
-        <v>0.1399852622188851</v>
+        <v>0.13928792604120005</v>
       </c>
       <c r="J24">
-        <v>5.9237235082482631E-2</v>
+        <v>4.4584590633400936E-2</v>
       </c>
       <c r="K24">
-        <v>0.807501194290005</v>
+        <v>0.48636516782840367</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,34 +1201,34 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>0.20892023917689745</v>
+        <v>0.13074496281527115</v>
       </c>
       <c r="F25">
-        <v>0.10304335045196579</v>
+        <v>4.4279713396032455E-2</v>
       </c>
       <c r="G25">
-        <v>0.1399852622188851</v>
+        <v>0.13928792604120005</v>
       </c>
       <c r="H25">
-        <v>5.9237235082482631E-2</v>
+        <v>4.4584590633400936E-2</v>
       </c>
       <c r="I25">
-        <v>0.11279543326042718</v>
+        <v>0.13059801757240441</v>
       </c>
       <c r="J25">
-        <v>3.8238996144989289E-2</v>
+        <v>4.9880954704948036E-2</v>
       </c>
       <c r="K25">
-        <v>0.65573934506292619</v>
+        <v>0.64171943302077605</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,34 +1236,34 @@
         <v>2017</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>0.10304335045196579</v>
+        <v>4.4279713396032455E-2</v>
       </c>
       <c r="F26">
-        <v>0.1150103574589926</v>
+        <v>0.10057047971984692</v>
       </c>
       <c r="G26">
-        <v>0.11279543326042718</v>
+        <v>0.13059801757240441</v>
       </c>
       <c r="H26">
-        <v>3.8238996144989289E-2</v>
+        <v>4.9880954704948036E-2</v>
       </c>
       <c r="I26">
-        <v>0.12158982466585593</v>
+        <v>0.12997607572502159</v>
       </c>
       <c r="J26">
-        <v>4.2759915547906896E-2</v>
+        <v>7.2098670346347732E-2</v>
       </c>
       <c r="K26">
-        <v>0.61103219821726984</v>
+        <v>0.70973663135221399</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1271,34 +1271,34 @@
         <v>2017</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>0.1150103574589926</v>
+        <v>0.10057047971984692</v>
       </c>
       <c r="F27">
-        <v>0.16965955204809161</v>
+        <v>6.3035177646378948E-2</v>
       </c>
       <c r="G27">
-        <v>0.12158982466585593</v>
+        <v>0.12997607572502159</v>
       </c>
       <c r="H27">
-        <v>4.2759915547906896E-2</v>
+        <v>7.2098670346347732E-2</v>
       </c>
       <c r="I27">
-        <v>0.14201010266425818</v>
+        <v>0.15125557059123573</v>
       </c>
       <c r="J27">
-        <v>7.7634797134550931E-2</v>
+        <v>2.6761323559960304E-2</v>
       </c>
       <c r="K27">
-        <v>0.60626558333060054</v>
+        <v>0.63705129993125087</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,34 +1306,34 @@
         <v>2017</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0.16965955204809161</v>
+        <v>6.3035177646378948E-2</v>
       </c>
       <c r="F28">
-        <v>0.11703440170303332</v>
+        <v>7.967014106530225E-2</v>
       </c>
       <c r="G28">
-        <v>0.14201010266425818</v>
+        <v>0.15125557059123573</v>
       </c>
       <c r="H28">
-        <v>7.7634797134550931E-2</v>
+        <v>2.6761323559960304E-2</v>
       </c>
       <c r="I28">
-        <v>0.14957348930610798</v>
+        <v>0.16187907687076097</v>
       </c>
       <c r="J28">
-        <v>5.1285513699292837E-2</v>
+        <v>0.1016616101745952</v>
       </c>
       <c r="K28">
-        <v>0.59552954225889176</v>
+        <v>0.51736856331264502</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1341,34 +1341,34 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>14</v>
       </c>
       <c r="E29">
-        <v>0.11703440170303332</v>
+        <v>7.967014106530225E-2</v>
       </c>
       <c r="F29">
-        <v>3.0319564432274348E-2</v>
+        <v>0.11218448714712449</v>
       </c>
       <c r="G29">
-        <v>0.14957348930610798</v>
+        <v>0.16187907687076097</v>
       </c>
       <c r="H29">
-        <v>5.1285513699292837E-2</v>
+        <v>0.1016616101745952</v>
       </c>
       <c r="I29">
-        <v>0.20489182002018194</v>
+        <v>0.20582402485822798</v>
       </c>
       <c r="J29">
-        <v>9.01791077558875E-2</v>
+        <v>0.10389506916565726</v>
       </c>
       <c r="K29">
-        <v>0.56976890993143736</v>
+        <v>0.53603114664672058</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1376,34 +1376,34 @@
         <v>2017</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>17</v>
       </c>
       <c r="E30">
-        <v>3.0319564432274348E-2</v>
+        <v>0.11218448714712449</v>
       </c>
       <c r="F30">
-        <v>5.5191811582669448E-2</v>
+        <v>8.7323442916645719E-2</v>
       </c>
       <c r="G30">
-        <v>0.20489182002018194</v>
+        <v>0.20582402485822798</v>
       </c>
       <c r="H30">
-        <v>9.01791077558875E-2</v>
+        <v>0.10389506916565726</v>
       </c>
       <c r="I30">
-        <v>0.14414286452651504</v>
+        <v>0.17126810351349936</v>
       </c>
       <c r="J30">
-        <v>7.6415927313261633E-2</v>
+        <v>8.0091416161572046E-2</v>
       </c>
       <c r="K30">
-        <v>0.7177436961346858</v>
+        <v>0.55772144269512691</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1411,34 +1411,34 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>20</v>
       </c>
       <c r="E31">
-        <v>5.5191811582669448E-2</v>
+        <v>8.7323442916645719E-2</v>
       </c>
       <c r="F31">
-        <v>0.15859532648596281</v>
+        <v>2.7218618679759936E-2</v>
       </c>
       <c r="G31">
-        <v>0.14414286452651504</v>
+        <v>0.17126810351349936</v>
       </c>
       <c r="H31">
-        <v>7.6415927313261633E-2</v>
+        <v>8.0091416161572046E-2</v>
       </c>
       <c r="I31">
-        <v>0.1785304223538253</v>
+        <v>0.14392938764469046</v>
       </c>
       <c r="J31">
-        <v>5.4449616908632203E-2</v>
+        <v>4.62378887851339E-2</v>
       </c>
       <c r="K31">
-        <v>0.39744445062069023</v>
+        <v>0.59738899332355544</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1446,34 +1446,34 @@
         <v>2017</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>0.15859532648596281</v>
+        <v>2.7218618679759936E-2</v>
       </c>
       <c r="F32">
-        <v>0.16832393018440692</v>
+        <v>9.9461482158585357E-2</v>
       </c>
       <c r="G32">
-        <v>0.1785304223538253</v>
+        <v>0.14392938764469046</v>
       </c>
       <c r="H32">
-        <v>5.4449616908632203E-2</v>
+        <v>4.62378887851339E-2</v>
       </c>
       <c r="I32">
-        <v>0.19367780857151745</v>
+        <v>9.4857501018604795E-2</v>
       </c>
       <c r="J32">
-        <v>8.0424976966039993E-2</v>
+        <v>2.4290017357859801E-2</v>
       </c>
       <c r="K32">
-        <v>0.370824566787893</v>
+        <v>0.56596751992295524</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1481,34 +1481,34 @@
         <v>2017</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>0.16832393018440692</v>
+        <v>9.9461482158585357E-2</v>
       </c>
       <c r="F33">
-        <v>0.14837204802319101</v>
+        <v>5.9907235806923281E-2</v>
       </c>
       <c r="G33">
-        <v>0.19367780857151745</v>
+        <v>9.4857501018604795E-2</v>
       </c>
       <c r="H33">
-        <v>8.0424976966039993E-2</v>
+        <v>2.4290017357859801E-2</v>
       </c>
       <c r="I33">
-        <v>0.11020793352434732</v>
+        <v>0.10707148167265679</v>
       </c>
       <c r="J33">
-        <v>1.6140127192288065E-2</v>
+        <v>6.2599293085531874E-2</v>
       </c>
       <c r="K33">
-        <v>0.37211513719037137</v>
+        <v>0.62651371177427539</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1516,34 +1516,34 @@
         <v>2017</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>0.14837204802319101</v>
+        <v>5.9907235806923281E-2</v>
       </c>
       <c r="F34">
-        <v>0.3625456095285573</v>
+        <v>8.8663989419269562E-2</v>
       </c>
       <c r="G34">
-        <v>0.11020793352434732</v>
+        <v>0.10707148167265679</v>
       </c>
       <c r="H34">
-        <v>1.6140127192288065E-2</v>
+        <v>6.2599293085531874E-2</v>
       </c>
       <c r="I34">
-        <v>0.3144156857891045</v>
+        <v>0.12861721200100931</v>
       </c>
       <c r="J34">
-        <v>4.7243660406174726E-2</v>
+        <v>4.8409069506269282E-2</v>
       </c>
       <c r="K34">
-        <v>0.57712311711046482</v>
+        <v>0.62698649471360823</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1551,34 +1551,34 @@
         <v>2017</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>0.3625456095285573</v>
+        <v>8.8663989419269562E-2</v>
       </c>
       <c r="F35">
-        <v>0.34750337440329349</v>
+        <v>2.9395178728565577E-2</v>
       </c>
       <c r="G35">
-        <v>0.3144156857891045</v>
+        <v>0.12861721200100931</v>
       </c>
       <c r="H35">
-        <v>4.7243660406174726E-2</v>
+        <v>4.8409069506269282E-2</v>
       </c>
       <c r="I35">
-        <v>0.30327961493383843</v>
+        <v>0.11228022306610197</v>
       </c>
       <c r="J35">
-        <v>7.0804074541166134E-2</v>
+        <v>2.9057332119074367E-2</v>
       </c>
       <c r="K35">
-        <v>0.73211400761245315</v>
+        <v>0.73884843244292375</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1586,34 +1586,34 @@
         <v>2017</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>0.34750337440329349</v>
+        <v>2.9395178728565577E-2</v>
       </c>
       <c r="F36">
-        <v>0.17875332313231523</v>
+        <v>0.13669211457236607</v>
       </c>
       <c r="G36">
-        <v>0.30327961493383843</v>
+        <v>0.11228022306610197</v>
       </c>
       <c r="H36">
-        <v>7.0804074541166134E-2</v>
+        <v>2.9057332119074367E-2</v>
       </c>
       <c r="I36">
-        <v>0.3404418651209955</v>
+        <v>0.16890764748230758</v>
       </c>
       <c r="J36">
-        <v>0.18061147314955484</v>
+        <v>9.6198682184213458E-2</v>
       </c>
       <c r="K36">
-        <v>0.86298267708100018</v>
+        <v>0.69019957712486302</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1621,34 +1621,34 @@
         <v>2017</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>14</v>
       </c>
       <c r="E37">
-        <v>0.17875332313231523</v>
+        <v>0.13669211457236607</v>
       </c>
       <c r="F37">
-        <v>5.3612974626523646E-2</v>
+        <v>0.19163827213142753</v>
       </c>
       <c r="G37">
-        <v>0.3404418651209955</v>
+        <v>0.16890764748230758</v>
       </c>
       <c r="H37">
-        <v>0.18061147314955484</v>
+        <v>9.6198682184213458E-2</v>
       </c>
       <c r="I37">
-        <v>0.28593425722564036</v>
+        <v>0.2324819705998809</v>
       </c>
       <c r="J37">
-        <v>0.12633472759904493</v>
+        <v>0.13635148247309359</v>
       </c>
       <c r="K37">
-        <v>0.87614861019813939</v>
+        <v>0.69345638737180959</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1656,34 +1656,34 @@
         <v>2017</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>5.3612974626523646E-2</v>
+        <v>0.19163827213142753</v>
       </c>
       <c r="F38">
-        <v>8.6273875941257891E-2</v>
+        <v>0.3015915211814878</v>
       </c>
       <c r="G38">
-        <v>0.28593425722564036</v>
+        <v>0.2324819705998809</v>
       </c>
       <c r="H38">
-        <v>0.12633472759904493</v>
+        <v>0.13635148247309359</v>
       </c>
       <c r="I38">
-        <v>0.17638612771737566</v>
+        <v>0.2542000940383442</v>
       </c>
       <c r="J38">
-        <v>0.114547961434092</v>
+        <v>8.1618399506336592E-2</v>
       </c>
       <c r="K38">
-        <v>0.79145096291853212</v>
+        <v>0.69039341536939691</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1691,34 +1691,34 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
-        <v>8.6273875941257891E-2</v>
+        <v>0.3015915211814878</v>
       </c>
       <c r="F39">
-        <v>0.17952831359642857</v>
+        <v>0.27265196577332917</v>
       </c>
       <c r="G39">
-        <v>0.17638612771737566</v>
+        <v>0.2542000940383442</v>
       </c>
       <c r="H39">
-        <v>0.114547961434092</v>
+        <v>8.1618399506336592E-2</v>
       </c>
       <c r="I39">
-        <v>0.24547912419343668</v>
+        <v>0.2109308077659208</v>
       </c>
       <c r="J39">
-        <v>8.331921449822699E-2</v>
+        <v>8.5031674210464397E-2</v>
       </c>
       <c r="K39">
-        <v>0.60015224391775912</v>
+        <v>0.64534418765415702</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,34 +1726,34 @@
         <v>2017</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>23</v>
       </c>
       <c r="E40">
-        <v>0.17952831359642857</v>
+        <v>0.27265196577332917</v>
       </c>
       <c r="F40">
-        <v>0.34987781327206624</v>
+        <v>0.2447361004217197</v>
       </c>
       <c r="G40">
-        <v>0.24547912419343668</v>
+        <v>0.2109308077659208</v>
       </c>
       <c r="H40">
-        <v>8.331921449822699E-2</v>
+        <v>8.5031674210464397E-2</v>
       </c>
       <c r="I40">
-        <v>0.17941494192785279</v>
+        <v>0.1880752298541907</v>
       </c>
       <c r="J40">
-        <v>7.7517683164230772E-2</v>
+        <v>4.6389120246344132E-2</v>
       </c>
       <c r="K40">
-        <v>0.64343258760045496</v>
+        <v>0.59421526571775529</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1761,34 +1761,34 @@
         <v>2017</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>0.34987781327206624</v>
+        <v>0.2447361004217197</v>
       </c>
       <c r="F41">
-        <v>7.9327817792156877E-2</v>
+        <v>0.17882589737604679</v>
       </c>
       <c r="G41">
-        <v>0.17941494192785279</v>
+        <v>0.1880752298541907</v>
       </c>
       <c r="H41">
-        <v>7.7517683164230772E-2</v>
+        <v>4.6389120246344132E-2</v>
       </c>
       <c r="I41">
-        <v>0.11099756202224145</v>
+        <v>0.15848429779149312</v>
       </c>
       <c r="J41">
-        <v>3.9669643656568401E-2</v>
+        <v>8.1511627073550863E-2</v>
       </c>
       <c r="K41">
-        <v>0.68032476693158928</v>
+        <v>0.63671988273956448</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1796,34 +1796,34 @@
         <v>2017</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42">
-        <v>7.9327817792156877E-2</v>
+        <v>0.17882589737604679</v>
       </c>
       <c r="F42">
-        <v>0.13283101584389681</v>
+        <v>0.19262540182881419</v>
       </c>
       <c r="G42">
-        <v>0.11099756202224145</v>
+        <v>0.15848429779149312</v>
       </c>
       <c r="H42">
-        <v>3.9669643656568401E-2</v>
+        <v>8.1511627073550863E-2</v>
       </c>
       <c r="I42">
-        <v>0.11130406155558727</v>
+        <v>0.23468562992577871</v>
       </c>
       <c r="J42">
-        <v>4.1905174545266544E-2</v>
+        <v>0.12018702993531352</v>
       </c>
       <c r="K42">
-        <v>0.71814882575649064</v>
+        <v>0.65166282389437924</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1831,34 +1831,34 @@
         <v>2017</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43">
-        <v>0.13283101584389681</v>
+        <v>0.19262540182881419</v>
       </c>
       <c r="F43">
-        <v>0.23941281610799542</v>
+        <v>5.9366954943744575E-2</v>
       </c>
       <c r="G43">
-        <v>0.11130406155558727</v>
+        <v>0.23468562992577871</v>
       </c>
       <c r="H43">
-        <v>4.1905174545266544E-2</v>
+        <v>0.12018702993531352</v>
       </c>
       <c r="I43">
-        <v>0.19751407631547629</v>
+        <v>0.18832613643054352</v>
       </c>
       <c r="J43">
-        <v>0.11034288971739789</v>
+        <v>7.68626706564636E-2</v>
       </c>
       <c r="K43">
-        <v>0.70423153097210567</v>
+        <v>0.71970974009747879</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1866,34 +1866,34 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44">
-        <v>0.23941281610799542</v>
+        <v>5.9366954943744575E-2</v>
       </c>
       <c r="F44">
-        <v>0.27730490305549471</v>
+        <v>0.13956007163555531</v>
       </c>
       <c r="G44">
-        <v>0.19751407631547629</v>
+        <v>0.18832613643054352</v>
       </c>
       <c r="H44">
-        <v>0.11034288971739789</v>
+        <v>7.68626706564636E-2</v>
       </c>
       <c r="I44">
-        <v>0.26936860499483983</v>
+        <v>0.21450605504767217</v>
       </c>
       <c r="J44">
-        <v>0.19205703533303978</v>
+        <v>0.11918967418536361</v>
       </c>
       <c r="K44">
-        <v>0.83617993049099704</v>
+        <v>0.70361358160617959</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1901,34 +1901,34 @@
         <v>2017</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>14</v>
       </c>
       <c r="E45">
-        <v>0.27730490305549471</v>
+        <v>0.13956007163555531</v>
       </c>
       <c r="F45">
-        <v>0.29162161519307794</v>
+        <v>0.18707635176037724</v>
       </c>
       <c r="G45">
-        <v>0.26936860499483983</v>
+        <v>0.21450605504767217</v>
       </c>
       <c r="H45">
-        <v>0.19205703533303978</v>
+        <v>0.11918967418536361</v>
       </c>
       <c r="I45">
-        <v>0.28477220833912187</v>
+        <v>0.19055648897986729</v>
       </c>
       <c r="J45">
-        <v>0.22708775094128147</v>
+        <v>0.11361669530467206</v>
       </c>
       <c r="K45">
-        <v>0.8620231167402308</v>
+        <v>0.74077681022595132</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1936,34 +1936,34 @@
         <v>2017</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>0.29162161519307794</v>
+        <v>0.18707635176037724</v>
       </c>
       <c r="F46">
-        <v>0.27357010858482084</v>
+        <v>0.26288628761482086</v>
       </c>
       <c r="G46">
-        <v>0.28477220833912187</v>
+        <v>0.19055648897986729</v>
       </c>
       <c r="H46">
-        <v>0.22708775094128147</v>
+        <v>0.11361669530467206</v>
       </c>
       <c r="I46">
-        <v>0.25450095264849365</v>
+        <v>0.2105016049726457</v>
       </c>
       <c r="J46">
-        <v>0.19073334913722684</v>
+        <v>7.3147120724203929E-2</v>
       </c>
       <c r="K46">
-        <v>0.90915230756860299</v>
+        <v>0.7214721034109175</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1971,34 +1971,34 @@
         <v>2017</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>20</v>
       </c>
       <c r="E47">
-        <v>0.27357010858482084</v>
+        <v>0.26288628761482086</v>
       </c>
       <c r="F47">
-        <v>0.22208683248741887</v>
+        <v>0.24030011017667346</v>
       </c>
       <c r="G47">
-        <v>0.25450095264849365</v>
+        <v>0.2105016049726457</v>
       </c>
       <c r="H47">
-        <v>0.19073334913722684</v>
+        <v>7.3147120724203929E-2</v>
       </c>
       <c r="I47">
-        <v>0.20393200878212236</v>
+        <v>0.19847176296473137</v>
       </c>
       <c r="J47">
-        <v>0.13872151809617439</v>
+        <v>9.5234168838151778E-2</v>
       </c>
       <c r="K47">
-        <v>0.92619199610976666</v>
+        <v>0.73555010500949991</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2006,34 +2006,34 @@
         <v>2017</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>0.22208683248741887</v>
+        <v>0.24030011017667346</v>
       </c>
       <c r="F48">
-        <v>0.24661033392896295</v>
+        <v>0.216641495536427</v>
       </c>
       <c r="G48">
-        <v>0.20393200878212236</v>
+        <v>0.19847176296473137</v>
       </c>
       <c r="H48">
-        <v>0.13872151809617439</v>
+        <v>9.5234168838151778E-2</v>
       </c>
       <c r="I48">
-        <v>0.23404347073449802</v>
+        <v>0.25085702531661913</v>
       </c>
       <c r="J48">
-        <v>0.14743993126827498</v>
+        <v>0.10680252285693384</v>
       </c>
       <c r="K48">
-        <v>0.92205066221798504</v>
+        <v>0.92074257773633339</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2041,34 +2041,34 @@
         <v>2017</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>0.24661033392896295</v>
+        <v>0.216641495536427</v>
       </c>
       <c r="F49">
-        <v>9.6505398983435117E-2</v>
+        <v>0.1554110184635501</v>
       </c>
       <c r="G49">
-        <v>0.23404347073449802</v>
+        <v>0.25085702531661913</v>
       </c>
       <c r="H49">
-        <v>0.14743993126827498</v>
+        <v>0.10680252285693384</v>
       </c>
       <c r="I49">
-        <v>0.10101712151755424</v>
+        <v>0.13705590627303466</v>
       </c>
       <c r="J49">
-        <v>2.4801405964826898E-2</v>
+        <v>8.7311419984426944E-2</v>
       </c>
       <c r="K49">
-        <v>0.88389392760777663</v>
+        <v>0.84509714303221162</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,34 +2076,34 @@
         <v>2017</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50">
-        <v>9.6505398983435117E-2</v>
+        <v>0.1554110184635501</v>
       </c>
       <c r="F50">
-        <v>0.16357093015715862</v>
+        <v>0.11395563343543966</v>
       </c>
       <c r="G50">
-        <v>0.10101712151755424</v>
+        <v>0.13705590627303466</v>
       </c>
       <c r="H50">
-        <v>2.4801405964826898E-2</v>
+        <v>8.7311419984426944E-2</v>
       </c>
       <c r="I50">
-        <v>0.24414501141099892</v>
+        <v>0.14789805675082521</v>
       </c>
       <c r="J50">
-        <v>0.11524223692133134</v>
+        <v>0.10855580276194329</v>
       </c>
       <c r="K50">
-        <v>0.85473314545122392</v>
+        <v>0.72343505402666786</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2111,34 +2111,34 @@
         <v>2017</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
-        <v>0.16357093015715862</v>
+        <v>0.11395563343543966</v>
       </c>
       <c r="F51">
-        <v>0.19555165367094224</v>
+        <v>8.552792305555558E-2</v>
       </c>
       <c r="G51">
-        <v>0.24414501141099892</v>
+        <v>0.14789805675082521</v>
       </c>
       <c r="H51">
-        <v>0.11524223692133134</v>
+        <v>0.10855580276194329</v>
       </c>
       <c r="I51">
-        <v>0.26925590845705849</v>
+        <v>0.1751227358655108</v>
       </c>
       <c r="J51">
-        <v>0.17524757385272532</v>
+        <v>0.10233423775453654</v>
       </c>
       <c r="K51">
-        <v>0.91071901801113864</v>
+        <v>0.78360476816549185</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2146,34 +2146,34 @@
         <v>2017</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>11</v>
       </c>
       <c r="E52">
-        <v>0.19555165367094224</v>
+        <v>8.552792305555558E-2</v>
       </c>
       <c r="F52">
-        <v>0.25978929410859258</v>
+        <v>0.13144367190148723</v>
       </c>
       <c r="G52">
-        <v>0.26925590845705849</v>
+        <v>0.1751227358655108</v>
       </c>
       <c r="H52">
-        <v>0.17524757385272532</v>
+        <v>0.10233423775453654</v>
       </c>
       <c r="I52">
-        <v>0.30162385138497372</v>
+        <v>0.21072541748660251</v>
       </c>
       <c r="J52">
-        <v>0.19923143298700097</v>
+        <v>0.15917861407466127</v>
       </c>
       <c r="K52">
-        <v>0.82916608316837537</v>
+        <v>0.69270633277245353</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2181,34 +2181,34 @@
         <v>2017</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>14</v>
       </c>
       <c r="E53">
-        <v>0.25978929410859258</v>
+        <v>0.13144367190148723</v>
       </c>
       <c r="F53">
-        <v>0.34524023735649439</v>
+        <v>0.11842412177751917</v>
       </c>
       <c r="G53">
-        <v>0.30162385138497372</v>
+        <v>0.21072541748660251</v>
       </c>
       <c r="H53">
-        <v>0.19923143298700097</v>
+        <v>0.15917861407466127</v>
       </c>
       <c r="I53">
-        <v>0.32194492673596292</v>
+        <v>0.15546494156168261</v>
       </c>
       <c r="J53">
-        <v>0.24045060712793218</v>
+        <v>0.10414603288878294</v>
       </c>
       <c r="K53">
-        <v>0.79387987502152935</v>
+        <v>0.55312276839730334</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2216,34 +2216,34 @@
         <v>2017</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>0.34524023735649439</v>
+        <v>0.11842412177751917</v>
       </c>
       <c r="F54">
-        <v>0.30764495526759161</v>
+        <v>6.6593719271525895E-2</v>
       </c>
       <c r="G54">
-        <v>0.32194492673596292</v>
+        <v>0.15546494156168261</v>
       </c>
       <c r="H54">
-        <v>0.24045060712793218</v>
+        <v>0.10414603288878294</v>
       </c>
       <c r="I54">
-        <v>0.33977162391841609</v>
+        <v>0.1456990554445155</v>
       </c>
       <c r="J54">
-        <v>0.21983350348033762</v>
+        <v>3.9402935514588511E-2</v>
       </c>
       <c r="K54">
-        <v>0.90257362405827157</v>
+        <v>0.41595604504211076</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2251,34 +2251,34 @@
         <v>2017</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>20</v>
       </c>
       <c r="E55">
-        <v>0.30764495526759161</v>
+        <v>6.6593719271525895E-2</v>
       </c>
       <c r="F55">
-        <v>0.24095455245681663</v>
+        <v>0.10923122257922287</v>
       </c>
       <c r="G55">
-        <v>0.33977162391841609</v>
+        <v>0.1456990554445155</v>
       </c>
       <c r="H55">
-        <v>0.21983350348033762</v>
+        <v>3.9402935514588511E-2</v>
       </c>
       <c r="I55">
-        <v>0.36677368418677625</v>
+        <v>0.14727984386709592</v>
       </c>
       <c r="J55">
-        <v>0.15674853106926562</v>
+        <v>3.9212277481365437E-2</v>
       </c>
       <c r="K55">
-        <v>0.78237874293863263</v>
+        <v>0.38387825138921922</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,34 +2286,34 @@
         <v>2017</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>0.24095455245681663</v>
+        <v>0.10923122257922287</v>
       </c>
       <c r="F56">
-        <v>0.31603793710235106</v>
+        <v>1.9942294754002811E-2</v>
       </c>
       <c r="G56">
-        <v>0.36677368418677625</v>
+        <v>0.14727984386709592</v>
       </c>
       <c r="H56">
-        <v>0.15674853106926562</v>
+        <v>3.9212277481365437E-2</v>
       </c>
       <c r="I56">
-        <v>0.26365529280176553</v>
+        <v>0.13877000120838479</v>
       </c>
       <c r="J56">
-        <v>0.12829197285162142</v>
+        <v>6.9631867563465177E-2</v>
       </c>
       <c r="K56">
-        <v>0.54734473743818535</v>
+        <v>0.50969253588755992</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2321,34 +2321,34 @@
         <v>2017</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>0.31603793710235106</v>
+        <v>1.9942294754002811E-2</v>
       </c>
       <c r="F57">
-        <v>0.11762388913052378</v>
+        <v>0.16215031133583185</v>
       </c>
       <c r="G57">
-        <v>0.26365529280176553</v>
+        <v>0.13877000120838479</v>
       </c>
       <c r="H57">
-        <v>0.12829197285162142</v>
+        <v>6.9631867563465177E-2</v>
       </c>
       <c r="I57">
-        <v>0.13819628945125095</v>
+        <v>0.14999972623342356</v>
       </c>
       <c r="J57">
-        <v>0.11414920142572839</v>
+        <v>0.1062397691119336</v>
       </c>
       <c r="K57">
-        <v>0.43365395436835819</v>
+        <v>0.60511492208781581</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2356,34 +2356,34 @@
         <v>2017</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58">
-        <v>0.11762388913052378</v>
+        <v>0.16215031133583185</v>
       </c>
       <c r="F58">
-        <v>4.9791612072092414E-2</v>
+        <v>0.25270625871913788</v>
       </c>
       <c r="G58">
-        <v>0.13819628945125095</v>
+        <v>0.14999972623342356</v>
       </c>
       <c r="H58">
-        <v>0.11414920142572839</v>
+        <v>0.1062397691119336</v>
       </c>
       <c r="I58">
-        <v>0.12842530069845859</v>
+        <v>0.18062378399212226</v>
       </c>
       <c r="J58">
-        <v>5.4280002614364151E-2</v>
+        <v>0.13901275986988021</v>
       </c>
       <c r="K58">
-        <v>0.46414569768795988</v>
+        <v>0.89003919332799186</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,34 +2391,34 @@
         <v>2017</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>4.9791612072092414E-2</v>
+        <v>0.25270625871913788</v>
       </c>
       <c r="F59">
-        <v>0.13102133066439808</v>
+        <v>0.16441299134177575</v>
       </c>
       <c r="G59">
-        <v>0.12842530069845859</v>
+        <v>0.18062378399212226</v>
       </c>
       <c r="H59">
-        <v>5.4280002614364151E-2</v>
+        <v>0.13901275986988021</v>
       </c>
       <c r="I59">
-        <v>0.16049990023675431</v>
+        <v>0.22422942843877169</v>
       </c>
       <c r="J59">
-        <v>8.1165404255113552E-2</v>
+        <v>0.16866445703928346</v>
       </c>
       <c r="K59">
-        <v>0.46099940892351843</v>
+        <v>0.87923754152888267</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2426,34 +2426,34 @@
         <v>2017</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>0.13102133066439808</v>
+        <v>0.16441299134177575</v>
       </c>
       <c r="F60">
-        <v>0.12489148587643777</v>
+        <v>0.19341754294400101</v>
       </c>
       <c r="G60">
-        <v>0.16049990023675431</v>
+        <v>0.22422942843877169</v>
       </c>
       <c r="H60">
-        <v>8.1165404255113552E-2</v>
+        <v>0.16866445703928346</v>
       </c>
       <c r="I60">
-        <v>0.18937530177431544</v>
+        <v>0.22355453621731491</v>
       </c>
       <c r="J60">
-        <v>0.13154206319328887</v>
+        <v>0.18097605951242013</v>
       </c>
       <c r="K60">
-        <v>0.60467492598688666</v>
+        <v>0.78288292905523138</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2461,34 +2461,34 @@
         <v>2017</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>14</v>
       </c>
       <c r="E61">
-        <v>0.12489148587643777</v>
+        <v>0.19341754294400101</v>
       </c>
       <c r="F61">
-        <v>0.27737910427014389</v>
+        <v>0.20263887797720145</v>
       </c>
       <c r="G61">
-        <v>0.18937530177431544</v>
+        <v>0.22355453621731491</v>
       </c>
       <c r="H61">
-        <v>0.13154206319328887</v>
+        <v>0.18097605951242013</v>
       </c>
       <c r="I61">
-        <v>0.2324229496012363</v>
+        <v>0.2057731611032862</v>
       </c>
       <c r="J61">
-        <v>0.10754110271455389</v>
+        <v>0.15604233261785844</v>
       </c>
       <c r="K61">
-        <v>0.54651907763580743</v>
+        <v>0.68693286176273594</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,34 +2496,34 @@
         <v>2017</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>17</v>
       </c>
       <c r="E62">
-        <v>0.27737910427014389</v>
+        <v>0.20263887797720145</v>
       </c>
       <c r="F62">
-        <v>0.35747519319419868</v>
+        <v>0.11719325635238272</v>
       </c>
       <c r="G62">
-        <v>0.2324229496012363</v>
+        <v>0.2057731611032862</v>
       </c>
       <c r="H62">
-        <v>0.10754110271455389</v>
+        <v>0.15604233261785844</v>
       </c>
       <c r="I62">
-        <v>0.31714597138732059</v>
+        <v>0.11136807062412066</v>
       </c>
       <c r="J62">
-        <v>0.19206435177502637</v>
+        <v>4.9628334943039976E-2</v>
       </c>
       <c r="K62">
-        <v>0.58268788344197986</v>
+        <v>0.6033298083304327</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2531,34 +2531,34 @@
         <v>2017</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>20</v>
       </c>
       <c r="E63">
-        <v>0.35747519319419868</v>
+        <v>0.11719325635238272</v>
       </c>
       <c r="F63">
-        <v>0.39154591758726676</v>
+        <v>4.6631763168817945E-2</v>
       </c>
       <c r="G63">
-        <v>0.31714597138732059</v>
+        <v>0.11136807062412066</v>
       </c>
       <c r="H63">
-        <v>0.19206435177502637</v>
+        <v>4.9628334943039976E-2</v>
       </c>
       <c r="I63">
-        <v>0.31049495754601086</v>
+        <v>0.13881815961799299</v>
       </c>
       <c r="J63">
-        <v>0.11219514539760198</v>
+        <v>5.3344234143333849E-2</v>
       </c>
       <c r="K63">
-        <v>0.70686708708434109</v>
+        <v>0.47461007487604845</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2566,34 +2566,34 @@
         <v>2017</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>23</v>
       </c>
       <c r="E64">
-        <v>0.39154591758726676</v>
+        <v>4.6631763168817945E-2</v>
       </c>
       <c r="F64">
-        <v>0.40439097230097515</v>
+        <v>4.0359630441389967E-2</v>
       </c>
       <c r="G64">
-        <v>0.31049495754601086</v>
+        <v>0.13881815961799299</v>
       </c>
       <c r="H64">
-        <v>0.11219514539760198</v>
+        <v>5.3344234143333849E-2</v>
       </c>
       <c r="I64">
-        <v>0.19486900181888867</v>
+        <v>0.1385679651904409</v>
       </c>
       <c r="J64">
-        <v>6.8754091168307843E-2</v>
+        <v>4.4908967530707986E-2</v>
       </c>
       <c r="K64">
-        <v>0.64808585696529919</v>
+        <v>0.54918139190989124</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2601,34 +2601,34 @@
         <v>2017</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65">
-        <v>0.40439097230097515</v>
+        <v>4.0359630441389967E-2</v>
       </c>
       <c r="F65">
-        <v>0.33227151395170401</v>
+        <v>0.43627988433602283</v>
       </c>
       <c r="G65">
-        <v>0.19486900181888867</v>
+        <v>0.1385679651904409</v>
       </c>
       <c r="H65">
-        <v>6.8754091168307843E-2</v>
+        <v>4.4908967530707986E-2</v>
       </c>
       <c r="I65">
-        <v>0.15347801837224445</v>
+        <v>0.39299583712482949</v>
       </c>
       <c r="J65">
-        <v>5.2334190514675208E-2</v>
+        <v>0.30179530533066196</v>
       </c>
       <c r="K65">
-        <v>0.52721597425831734</v>
+        <v>0.69410366072710505</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,34 +2636,34 @@
         <v>2017</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66">
-        <v>0.33227151395170401</v>
+        <v>0.43627988433602283</v>
       </c>
       <c r="F66">
-        <v>8.4703283564517534E-2</v>
+        <v>0.42356500387174206</v>
       </c>
       <c r="G66">
-        <v>0.15347801837224445</v>
+        <v>0.39299583712482949</v>
       </c>
       <c r="H66">
-        <v>5.2334190514675208E-2</v>
+        <v>0.30179530533066196</v>
       </c>
       <c r="I66">
-        <v>0.17838824288008914</v>
+        <v>0.42710315156551115</v>
       </c>
       <c r="J66">
-        <v>9.0785218362370509E-2</v>
+        <v>0.28016246400221634</v>
       </c>
       <c r="K66">
-        <v>0.39097588156233998</v>
+        <v>0.79233149257112245</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2671,34 +2671,34 @@
         <v>2017</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>8.4703283564517534E-2</v>
+        <v>0.42356500387174206</v>
       </c>
       <c r="F67">
-        <v>0.138993838949479</v>
+        <v>0.40021105889118275</v>
       </c>
       <c r="G67">
-        <v>0.17838824288008914</v>
+        <v>0.42710315156551115</v>
       </c>
       <c r="H67">
-        <v>9.0785218362370509E-2</v>
+        <v>0.28016246400221634</v>
       </c>
       <c r="I67">
-        <v>0.23706500054376739</v>
+        <v>0.51831091936292317</v>
       </c>
       <c r="J67">
-        <v>0.10100586873313035</v>
+        <v>0.40106801649619894</v>
       </c>
       <c r="K67">
-        <v>0.56325861266228994</v>
+        <v>0.90619236204422893</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2706,34 +2706,34 @@
         <v>2017</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68">
-        <v>0.138993838949479</v>
+        <v>0.40021105889118275</v>
       </c>
       <c r="F68">
-        <v>0.20921704403549407</v>
+        <v>0.585608640204062</v>
       </c>
       <c r="G68">
-        <v>0.23706500054376739</v>
+        <v>0.51831091936292317</v>
       </c>
       <c r="H68">
-        <v>0.10100586873313035</v>
+        <v>0.40106801649619894</v>
       </c>
       <c r="I68">
-        <v>0.20702661503038941</v>
+        <v>0.52125740181844815</v>
       </c>
       <c r="J68">
-        <v>9.045773536572943E-2</v>
+        <v>0.4321402420886053</v>
       </c>
       <c r="K68">
-        <v>0.83619728359246659</v>
+        <v>0.9316186692636198</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2741,34 +2741,34 @@
         <v>2017</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>14</v>
       </c>
       <c r="E69">
-        <v>0.20921704403549407</v>
+        <v>0.585608640204062</v>
       </c>
       <c r="F69">
-        <v>0.54811460278667612</v>
+        <v>0.5516887514255493</v>
       </c>
       <c r="G69">
-        <v>0.20702661503038941</v>
+        <v>0.52125740181844815</v>
       </c>
       <c r="H69">
-        <v>9.045773536572943E-2</v>
+        <v>0.4321402420886053</v>
       </c>
       <c r="I69">
-        <v>0.44998611614891865</v>
+        <v>0.50738842808354612</v>
       </c>
       <c r="J69">
-        <v>0.22966067910994287</v>
+        <v>0.44338102069906504</v>
       </c>
       <c r="K69">
-        <v>0.88280272676798721</v>
+        <v>0.94236987472403744</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,34 +2776,34 @@
         <v>2017</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>17</v>
       </c>
       <c r="E70">
-        <v>0.54811460278667612</v>
+        <v>0.5516887514255493</v>
       </c>
       <c r="F70">
-        <v>0.61959510623202407</v>
+        <v>0.5739905705146553</v>
       </c>
       <c r="G70">
-        <v>0.44998611614891865</v>
+        <v>0.50738842808354612</v>
       </c>
       <c r="H70">
-        <v>0.22966067910994287</v>
+        <v>0.44338102069906504</v>
       </c>
       <c r="I70">
-        <v>0.53729363080317771</v>
+        <v>0.51644605648722153</v>
       </c>
       <c r="J70">
-        <v>0.35172640863879528</v>
+        <v>0.41352648445978613</v>
       </c>
       <c r="K70">
-        <v>0.93321393061231328</v>
+        <v>0.94387677766109324</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,34 +2811,34 @@
         <v>2017</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>0.61959510623202407</v>
+        <v>0.5739905705146553</v>
       </c>
       <c r="F71">
-        <v>0.57540416061875244</v>
+        <v>0.45415383770434087</v>
       </c>
       <c r="G71">
-        <v>0.53729363080317771</v>
+        <v>0.51644605648722153</v>
       </c>
       <c r="H71">
-        <v>0.35172640863879528</v>
+        <v>0.41352648445978613</v>
       </c>
       <c r="I71">
-        <v>0.585247161595151</v>
+        <v>0.48690140279671978</v>
       </c>
       <c r="J71">
-        <v>0.41044580455720991</v>
+        <v>0.38341354709613618</v>
       </c>
       <c r="K71">
-        <v>0.94222154717728968</v>
+        <v>0.91866699403513119</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2846,34 +2846,34 @@
         <v>2017</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>23</v>
       </c>
       <c r="E72">
-        <v>0.57540416061875244</v>
+        <v>0.45415383770434087</v>
       </c>
       <c r="F72">
-        <v>0.55541105556050918</v>
+        <v>0.54884516793513505</v>
       </c>
       <c r="G72">
-        <v>0.585247161595151</v>
+        <v>0.48690140279671978</v>
       </c>
       <c r="H72">
-        <v>0.41044580455720991</v>
+        <v>0.38341354709613618</v>
       </c>
       <c r="I72">
-        <v>0.50791880603654549</v>
+        <v>0.47937805539095657</v>
       </c>
       <c r="J72">
-        <v>0.29179666248411062</v>
+        <v>0.33760175453719504</v>
       </c>
       <c r="K72">
-        <v>0.95069130298299187</v>
+        <v>0.84451113658501964</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -2884,31 +2884,31 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
-        <v>0.55541105556050918</v>
+        <v>0.54884516793513505</v>
       </c>
       <c r="F73">
-        <v>0.45152935505169917</v>
+        <v>0.41125634962037749</v>
       </c>
       <c r="G73">
-        <v>0.50791880603654549</v>
+        <v>0.47937805539095657</v>
       </c>
       <c r="H73">
-        <v>0.29179666248411062</v>
+        <v>0.33760175453719504</v>
       </c>
       <c r="I73">
-        <v>0.45484526449239721</v>
+        <v>0.37480595408599848</v>
       </c>
       <c r="J73">
-        <v>0.23396160464292876</v>
+        <v>0.27306171637847138</v>
       </c>
       <c r="K73">
-        <v>0.91834675130292176</v>
+        <v>0.87796016518464781</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -2919,31 +2919,31 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74">
-        <v>0.45152935505169917</v>
+        <v>0.41125634962037749</v>
       </c>
       <c r="F74">
-        <v>0.49332937263738696</v>
+        <v>0.38884484945378411</v>
       </c>
       <c r="G74">
-        <v>0.45484526449239721</v>
+        <v>0.37480595408599848</v>
       </c>
       <c r="H74">
-        <v>0.23396160464292876</v>
+        <v>0.27306171637847138</v>
       </c>
       <c r="I74">
-        <v>0.45039852411258552</v>
+        <v>0.41685091362890769</v>
       </c>
       <c r="J74">
-        <v>0.29156845422387162</v>
+        <v>0.33073276037750587</v>
       </c>
       <c r="K74">
-        <v>0.91784364860737844</v>
+        <v>0.89955351702865538</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -2954,31 +2954,31 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>0.49332937263738696</v>
+        <v>0.38884484945378411</v>
       </c>
       <c r="F75">
-        <v>0.4256825986155785</v>
+        <v>0.30530036650541381</v>
       </c>
       <c r="G75">
-        <v>0.45039852411258552</v>
+        <v>0.41685091362890769</v>
       </c>
       <c r="H75">
-        <v>0.29156845422387162</v>
+        <v>0.33073276037750587</v>
       </c>
       <c r="I75">
-        <v>0.42749057262762302</v>
+        <v>0.3391585765423884</v>
       </c>
       <c r="J75">
-        <v>0.24845668039115215</v>
+        <v>0.28241089789221752</v>
       </c>
       <c r="K75">
-        <v>0.92998790483719329</v>
+        <v>0.90307298963155813</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -2989,31 +2989,31 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>11</v>
       </c>
       <c r="E76">
-        <v>0.4256825986155785</v>
+        <v>0.30530036650541381</v>
       </c>
       <c r="F76">
-        <v>0.52169072579217324</v>
+        <v>0.30888734396546491</v>
       </c>
       <c r="G76">
-        <v>0.42749057262762302</v>
+        <v>0.3391585765423884</v>
       </c>
       <c r="H76">
-        <v>0.24845668039115215</v>
+        <v>0.28241089789221752</v>
       </c>
       <c r="I76">
-        <v>0.54194808442111264</v>
+        <v>0.32725289462118046</v>
       </c>
       <c r="J76">
-        <v>0.40329974264296142</v>
+        <v>0.24738172425456445</v>
       </c>
       <c r="K76">
-        <v>0.94403222213479654</v>
+        <v>0.85562121736094832</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3024,31 +3024,31 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>14</v>
       </c>
       <c r="E77">
-        <v>0.52169072579217324</v>
+        <v>0.30888734396546491</v>
       </c>
       <c r="F77">
-        <v>0.60957794225438877</v>
+        <v>0.20105865800895695</v>
       </c>
       <c r="G77">
-        <v>0.54194808442111264</v>
+        <v>0.32725289462118046</v>
       </c>
       <c r="H77">
-        <v>0.40329974264296142</v>
+        <v>0.24738172425456445</v>
       </c>
       <c r="I77">
-        <v>0.6202567973664157</v>
+        <v>0.27686209846769633</v>
       </c>
       <c r="J77">
-        <v>0.49142974925345129</v>
+        <v>0.1811827111372907</v>
       </c>
       <c r="K77">
-        <v>0.95825993401299558</v>
+        <v>0.86175647066331151</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3059,31 +3059,31 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>0.60957794225438877</v>
+        <v>0.20105865800895695</v>
       </c>
       <c r="F78">
-        <v>0.56575800271436294</v>
+        <v>0.21816890609699238</v>
       </c>
       <c r="G78">
-        <v>0.6202567973664157</v>
+        <v>0.27686209846769633</v>
       </c>
       <c r="H78">
-        <v>0.49142974925345129</v>
+        <v>0.1811827111372907</v>
       </c>
       <c r="I78">
-        <v>0.59242672617865533</v>
+        <v>0.24722487108108782</v>
       </c>
       <c r="J78">
-        <v>0.48669906164849208</v>
+        <v>0.10331694418684907</v>
       </c>
       <c r="K78">
-        <v>0.94944449426419875</v>
+        <v>0.80757548980692995</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3094,31 +3094,31 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>0.56575800271436294</v>
+        <v>0.21816890609699238</v>
       </c>
       <c r="F79">
-        <v>0.48999031797817527</v>
+        <v>0.23211465198640963</v>
       </c>
       <c r="G79">
-        <v>0.59242672617865533</v>
+        <v>0.24722487108108782</v>
       </c>
       <c r="H79">
-        <v>0.48669906164849208</v>
+        <v>0.10331694418684907</v>
       </c>
       <c r="I79">
-        <v>0.57382520844794926</v>
+        <v>0.2309483107173079</v>
       </c>
       <c r="J79">
-        <v>0.38084861829854144</v>
+        <v>0.1093550203844357</v>
       </c>
       <c r="K79">
-        <v>0.94770006952889241</v>
+        <v>0.73901966790083473</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3129,31 +3129,31 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D80">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>0.48999031797817527</v>
+        <v>0.23211465198640963</v>
       </c>
       <c r="F80">
-        <v>0.44353211302840184</v>
+        <v>0.20072149025223646</v>
       </c>
       <c r="G80">
-        <v>0.57382520844794926</v>
+        <v>0.2309483107173079</v>
       </c>
       <c r="H80">
-        <v>0.38084861829854144</v>
+        <v>0.1093550203844357</v>
       </c>
       <c r="I80">
-        <v>0.45131745963037589</v>
+        <v>0.26626551810929222</v>
       </c>
       <c r="J80">
-        <v>0.21294688412691121</v>
+        <v>0.12049519333095673</v>
       </c>
       <c r="K80">
-        <v>0.94741713126978688</v>
+        <v>0.71115943041482121</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,31 +3164,31 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>0.44353211302840184</v>
+        <v>0.20072149025223646</v>
       </c>
       <c r="F81">
-        <v>0.29432995952777191</v>
+        <v>0.12866914686726877</v>
       </c>
       <c r="G81">
-        <v>0.45131745963037589</v>
+        <v>0.26626551810929222</v>
       </c>
       <c r="H81">
-        <v>0.21294688412691121</v>
+        <v>0.12049519333095673</v>
       </c>
       <c r="I81">
-        <v>0.20903990725044314</v>
+        <v>0.20131076328142083</v>
       </c>
       <c r="J81">
-        <v>8.5849324494215298E-2</v>
+        <v>0.12383622352931919</v>
       </c>
       <c r="K81">
-        <v>0.85073911618995313</v>
+        <v>0.69238096733279209</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3199,31 +3199,31 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82">
-        <v>0.29432995952777191</v>
+        <v>0.12866914686726877</v>
       </c>
       <c r="F82">
-        <v>0.24345266001667135</v>
+        <v>0.22411605785408731</v>
       </c>
       <c r="G82">
-        <v>0.20903990725044314</v>
+        <v>0.20131076328142083</v>
       </c>
       <c r="H82">
-        <v>8.5849324494215298E-2</v>
+        <v>0.12383622352931919</v>
       </c>
       <c r="I82">
-        <v>0.14648454590709728</v>
+        <v>0.12584317708531487</v>
       </c>
       <c r="J82">
-        <v>4.5173845580756877E-2</v>
+        <v>5.5875517467020991E-2</v>
       </c>
       <c r="K82">
-        <v>0.73906319600129533</v>
+        <v>0.6720704265513171</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3234,31 +3234,31 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83">
-        <v>0.24345266001667135</v>
+        <v>0.22411605785408731</v>
       </c>
       <c r="F83">
-        <v>0.22866188456327413</v>
+        <v>0.24507326817844022</v>
       </c>
       <c r="G83">
-        <v>0.14648454590709728</v>
+        <v>0.12584317708531487</v>
       </c>
       <c r="H83">
-        <v>4.5173845580756877E-2</v>
+        <v>5.5875517467020991E-2</v>
       </c>
       <c r="I83">
-        <v>0.24728928599181244</v>
+        <v>0.19519726030816537</v>
       </c>
       <c r="J83">
-        <v>0.11741764506180379</v>
+        <v>0.11904909461745707</v>
       </c>
       <c r="K83">
-        <v>0.65016883423570959</v>
+        <v>0.61789280321964468</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3269,31 +3269,31 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
       <c r="E84">
-        <v>0.22866188456327413</v>
+        <v>0.24507326817844022</v>
       </c>
       <c r="F84">
-        <v>0.32500803949549278</v>
+        <v>0.18892874329127568</v>
       </c>
       <c r="G84">
-        <v>0.24728928599181244</v>
+        <v>0.19519726030816537</v>
       </c>
       <c r="H84">
-        <v>0.11741764506180379</v>
+        <v>0.11904909461745707</v>
       </c>
       <c r="I84">
-        <v>0.26243059942449398</v>
+        <v>0.22036236352316907</v>
       </c>
       <c r="J84">
-        <v>7.6649974488231604E-2</v>
+        <v>0.13294263462545414</v>
       </c>
       <c r="K84">
-        <v>0.7002942312630438</v>
+        <v>0.65323824389541929</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3304,31 +3304,31 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>14</v>
       </c>
       <c r="E85">
-        <v>0.32500803949549278</v>
+        <v>0.18892874329127568</v>
       </c>
       <c r="F85">
-        <v>0.22565673536998354</v>
+        <v>0.13331637474303146</v>
       </c>
       <c r="G85">
-        <v>0.26243059942449398</v>
+        <v>0.22036236352316907</v>
       </c>
       <c r="H85">
-        <v>7.6649974488231604E-2</v>
+        <v>0.13294263462545414</v>
       </c>
       <c r="I85">
-        <v>0.37754795958375659</v>
+        <v>0.21130485999090001</v>
       </c>
       <c r="J85">
-        <v>0.11493594799015294</v>
+        <v>0.14909933710259726</v>
       </c>
       <c r="K85">
-        <v>0.89446067573817833</v>
+        <v>0.6868862578493784</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3339,31 +3339,31 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>17</v>
       </c>
       <c r="E86">
-        <v>0.22565673536998354</v>
+        <v>0.13331637474303146</v>
       </c>
       <c r="F86">
-        <v>3.3172188906563892E-2</v>
+        <v>0.15076379058778741</v>
       </c>
       <c r="G86">
-        <v>0.37754795958375659</v>
+        <v>0.21130485999090001</v>
       </c>
       <c r="H86">
-        <v>0.11493594799015294</v>
+        <v>0.14909933710259726</v>
       </c>
       <c r="I86">
-        <v>0.33077128188760341</v>
+        <v>0.17176139516791922</v>
       </c>
       <c r="J86">
-        <v>0.14628554623414014</v>
+        <v>0.10703830161140161</v>
       </c>
       <c r="K86">
-        <v>0.81624633615699649</v>
+        <v>0.57004071425365366</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3374,31 +3374,31 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>3.3172188906563892E-2</v>
+        <v>0.15076379058778741</v>
       </c>
       <c r="F87">
-        <v>0.14124048683746715</v>
+        <v>0.13948695091723035</v>
       </c>
       <c r="G87">
-        <v>0.33077128188760341</v>
+        <v>0.17176139516791922</v>
       </c>
       <c r="H87">
-        <v>0.14628554623414014</v>
+        <v>0.10703830161140161</v>
       </c>
       <c r="I87">
-        <v>0.30124580220889458</v>
+        <v>0.13800895296440077</v>
       </c>
       <c r="J87">
-        <v>0.14922232864034504</v>
+        <v>8.1858402597507235E-2</v>
       </c>
       <c r="K87">
-        <v>0.62086256870435919</v>
+        <v>0.57709905536190043</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3409,31 +3409,31 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>23</v>
       </c>
       <c r="E88">
-        <v>0.14124048683746715</v>
+        <v>0.13948695091723035</v>
       </c>
       <c r="F88">
-        <v>0.16689761794726213</v>
+        <v>0.12010183603686357</v>
       </c>
       <c r="G88">
-        <v>0.30124580220889458</v>
+        <v>0.13800895296440077</v>
       </c>
       <c r="H88">
-        <v>0.14922232864034504</v>
+        <v>8.1858402597507235E-2</v>
       </c>
       <c r="I88">
-        <v>0.26172474943783619</v>
+        <v>0.15658570277317385</v>
       </c>
       <c r="J88">
-        <v>7.906187611395693E-2</v>
+        <v>0.10510421359120167</v>
       </c>
       <c r="K88">
-        <v>0.60491724635825728</v>
+        <v>0.64004718731683075</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3444,31 +3444,31 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>0.16689761794726213</v>
+        <v>0.12010183603686357</v>
       </c>
       <c r="F89">
-        <v>0.23121358188926433</v>
+        <v>0.11924876098973931</v>
       </c>
       <c r="G89">
-        <v>0.26172474943783619</v>
+        <v>0.15658570277317385</v>
       </c>
       <c r="H89">
-        <v>7.906187611395693E-2</v>
+        <v>0.10510421359120167</v>
       </c>
       <c r="I89">
-        <v>0.27926410746710695</v>
+        <v>0.1604454334353142</v>
       </c>
       <c r="J89">
-        <v>0.14148857035483087</v>
+        <v>0.12394794336526298</v>
       </c>
       <c r="K89">
-        <v>0.57191239119828752</v>
+        <v>0.72624050894406222</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3479,31 +3479,31 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90">
-        <v>0.23121358188926433</v>
+        <v>0.11924876098973931</v>
       </c>
       <c r="F90">
-        <v>0.28378514246818715</v>
+        <v>0.11976060601801387</v>
       </c>
       <c r="G90">
-        <v>0.27926410746710695</v>
+        <v>0.1604454334353142</v>
       </c>
       <c r="H90">
-        <v>0.14148857035483087</v>
+        <v>0.12394794336526298</v>
       </c>
       <c r="I90">
-        <v>0.30425148301112515</v>
+        <v>0.19656453306380464</v>
       </c>
       <c r="J90">
-        <v>0.1297265098881511</v>
+        <v>0.12949061283424484</v>
       </c>
       <c r="K90">
-        <v>0.72205716835628042</v>
+        <v>0.77775418347030711</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3514,31 +3514,31 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91">
-        <v>0.28378514246818715</v>
+        <v>0.11976060601801387</v>
       </c>
       <c r="F91">
-        <v>0.23987451255470124</v>
+        <v>0.20700580976605187</v>
       </c>
       <c r="G91">
-        <v>0.30425148301112515</v>
+        <v>0.19656453306380464</v>
       </c>
       <c r="H91">
-        <v>0.1297265098881511</v>
+        <v>0.12949061283424484</v>
       </c>
       <c r="I91">
-        <v>0.34498349179345222</v>
+        <v>0.24532793051748614</v>
       </c>
       <c r="J91">
-        <v>0.23699767178006242</v>
+        <v>0.19275685043090723</v>
       </c>
       <c r="K91">
-        <v>0.78921029445264101</v>
+        <v>0.75974039102437096</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3549,31 +3549,31 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>11</v>
       </c>
       <c r="E92">
-        <v>0.23987451255470124</v>
+        <v>0.20700580976605187</v>
       </c>
       <c r="F92">
-        <v>0.35151848457375307</v>
+        <v>0.26664388008429685</v>
       </c>
       <c r="G92">
-        <v>0.34498349179345222</v>
+        <v>0.24532793051748614</v>
       </c>
       <c r="H92">
-        <v>0.23699767178006242</v>
+        <v>0.19275685043090723</v>
       </c>
       <c r="I92">
-        <v>0.34815467747390094</v>
+        <v>0.22971164797496904</v>
       </c>
       <c r="J92">
-        <v>0.23244291574622716</v>
+        <v>0.18575486600051527</v>
       </c>
       <c r="K92">
-        <v>0.87334668447652819</v>
+        <v>0.77477587069428577</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3584,31 +3584,31 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>14</v>
       </c>
       <c r="E93">
-        <v>0.35151848457375307</v>
+        <v>0.26664388008429685</v>
       </c>
       <c r="F93">
-        <v>0.39103475366412815</v>
+        <v>0.29504721689140589</v>
       </c>
       <c r="G93">
-        <v>0.34815467747390094</v>
+        <v>0.22971164797496904</v>
       </c>
       <c r="H93">
-        <v>0.23244291574622716</v>
+        <v>0.18575486600051527</v>
       </c>
       <c r="I93">
-        <v>0.37376041470370658</v>
+        <v>0.26342101783622929</v>
       </c>
       <c r="J93">
-        <v>0.23516933270744206</v>
+        <v>0.21626101731321254</v>
       </c>
       <c r="K93">
-        <v>0.84959792433068326</v>
+        <v>0.79774170896920793</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3619,31 +3619,31 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>17</v>
       </c>
       <c r="E94">
-        <v>0.39103475366412815</v>
+        <v>0.29504721689140589</v>
       </c>
       <c r="F94">
-        <v>0.34837729982027238</v>
+        <v>0.32177690170129974</v>
       </c>
       <c r="G94">
-        <v>0.37376041470370658</v>
+        <v>0.26342101783622929</v>
       </c>
       <c r="H94">
-        <v>0.23516933270744206</v>
+        <v>0.21626101731321254</v>
       </c>
       <c r="I94">
-        <v>0.37401076949995427</v>
+        <v>0.30575202426089276</v>
       </c>
       <c r="J94">
-        <v>0.23760908613126333</v>
+        <v>0.22849461941279436</v>
       </c>
       <c r="K94">
-        <v>0.86306832334436301</v>
+        <v>0.85156253310973096</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3654,31 +3654,31 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95">
-        <v>0.34837729982027238</v>
+        <v>0.32177690170129974</v>
       </c>
       <c r="F95">
-        <v>0.36912066160441254</v>
+        <v>0.30833487631589873</v>
       </c>
       <c r="G95">
-        <v>0.37401076949995427</v>
+        <v>0.30575202426089276</v>
       </c>
       <c r="H95">
-        <v>0.23760908613126333</v>
+        <v>0.22849461941279436</v>
       </c>
       <c r="I95">
-        <v>0.3716842574058119</v>
+        <v>0.27751349575361411</v>
       </c>
       <c r="J95">
-        <v>0.22685945683128231</v>
+        <v>0.18805493254603117</v>
       </c>
       <c r="K95">
-        <v>0.90878137151037153</v>
+        <v>0.87182569010280564</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,31 +3689,31 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>23</v>
       </c>
       <c r="E96">
-        <v>0.36912066160441254</v>
+        <v>0.30833487631589873</v>
       </c>
       <c r="F96">
-        <v>0.27898679725420877</v>
+        <v>0.30166870416194191</v>
       </c>
       <c r="G96">
-        <v>0.3716842574058119</v>
+        <v>0.27751349575361411</v>
       </c>
       <c r="H96">
-        <v>0.22685945683128231</v>
+        <v>0.18805493254603117</v>
       </c>
       <c r="I96">
-        <v>0.35469061292323195</v>
+        <v>0.25622758236173881</v>
       </c>
       <c r="J96">
-        <v>0.20594937495781934</v>
+        <v>0.20110099996933306</v>
       </c>
       <c r="K96">
-        <v>0.91262817606001423</v>
+        <v>0.88206804574896069</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3724,31 +3724,31 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>0.27898679725420877</v>
+        <v>0.30166870416194191</v>
       </c>
       <c r="F97">
-        <v>0.36331647770296788</v>
+        <v>0.31076004680700914</v>
       </c>
       <c r="G97">
-        <v>0.35469061292323195</v>
+        <v>0.25622758236173881</v>
       </c>
       <c r="H97">
-        <v>0.20594937495781934</v>
+        <v>0.20110099996933306</v>
       </c>
       <c r="I97">
-        <v>0.27444395425500046</v>
+        <v>0.29894482636673181</v>
       </c>
       <c r="J97">
-        <v>0.19894615041492769</v>
+        <v>0.24310724899022465</v>
       </c>
       <c r="K97">
-        <v>0.87467352948446053</v>
+        <v>0.91234767205580369</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,31 +3759,31 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98">
-        <v>0.36331647770296788</v>
+        <v>0.31076004680700914</v>
       </c>
       <c r="F98">
-        <v>0.2220497318800943</v>
+        <v>0.31598411590511305</v>
       </c>
       <c r="G98">
-        <v>0.27444395425500046</v>
+        <v>0.29894482636673181</v>
       </c>
       <c r="H98">
-        <v>0.19894615041492769</v>
+        <v>0.24310724899022465</v>
       </c>
       <c r="I98">
-        <v>0.25920827984567313</v>
+        <v>0.29204669137505834</v>
       </c>
       <c r="J98">
-        <v>0.16270655896743658</v>
+        <v>0.20170692219614139</v>
       </c>
       <c r="K98">
-        <v>0.87939694666311874</v>
+        <v>0.9606782293665328</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -3794,31 +3794,31 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>8</v>
       </c>
       <c r="E99">
-        <v>0.2220497318800943</v>
+        <v>0.31598411590511305</v>
       </c>
       <c r="F99">
-        <v>0.18635482534415038</v>
+        <v>0.34954652561625937</v>
       </c>
       <c r="G99">
-        <v>0.25920827984567313</v>
+        <v>0.29204669137505834</v>
       </c>
       <c r="H99">
-        <v>0.16270655896743658</v>
+        <v>0.20170692219614139</v>
       </c>
       <c r="I99">
-        <v>0.26591572239500194</v>
+        <v>0.35464976333283826</v>
       </c>
       <c r="J99">
-        <v>0.18326061232932606</v>
+        <v>0.29351143152899117</v>
       </c>
       <c r="K99">
-        <v>0.84032164129562514</v>
+        <v>0.90659753506095431</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -3829,31 +3829,31 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <v>11</v>
       </c>
       <c r="E100">
-        <v>0.18635482534415038</v>
+        <v>0.34954652561625937</v>
       </c>
       <c r="F100">
-        <v>0.2072548341369943</v>
+        <v>0.45898792963804513</v>
       </c>
       <c r="G100">
-        <v>0.26591572239500194</v>
+        <v>0.35464976333283826</v>
       </c>
       <c r="H100">
-        <v>0.18326061232932606</v>
+        <v>0.29351143152899117</v>
       </c>
       <c r="I100">
-        <v>0.27072482078802479</v>
+        <v>0.41202455480946082</v>
       </c>
       <c r="J100">
-        <v>0.15804872804978184</v>
+        <v>0.38949134657981399</v>
       </c>
       <c r="K100">
-        <v>0.77738762420383034</v>
+        <v>0.91534114477984585</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -3864,31 +3864,31 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>14</v>
       </c>
       <c r="E101">
-        <v>0.2072548341369943</v>
+        <v>0.45898792963804513</v>
       </c>
       <c r="F101">
-        <v>0.25889887953280277</v>
+        <v>0.50879126334158598</v>
       </c>
       <c r="G101">
-        <v>0.27072482078802479</v>
+        <v>0.41202455480946082</v>
       </c>
       <c r="H101">
-        <v>0.15804872804978184</v>
+        <v>0.38949134657981399</v>
       </c>
       <c r="I101">
-        <v>0.2470587040608557</v>
+        <v>0.44454291562320647</v>
       </c>
       <c r="J101">
-        <v>0.16551838017508724</v>
+        <v>0.418563269378669</v>
       </c>
       <c r="K101">
-        <v>0.78730545272051122</v>
+        <v>0.91569201133803857</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3899,31 +3899,31 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>0.25889887953280277</v>
+        <v>0.50879126334158598</v>
       </c>
       <c r="F102">
-        <v>0.20464542475516587</v>
+        <v>0.47694312824894641</v>
       </c>
       <c r="G102">
-        <v>0.2470587040608557</v>
+        <v>0.44454291562320647</v>
       </c>
       <c r="H102">
-        <v>0.16551838017508724</v>
+        <v>0.418563269378669</v>
       </c>
       <c r="I102">
-        <v>0.24695186388913651</v>
+        <v>0.42119872307137574</v>
       </c>
       <c r="J102">
-        <v>0.13395898783853211</v>
+        <v>0.3722929657069502</v>
       </c>
       <c r="K102">
-        <v>0.80589277176769514</v>
+        <v>0.88845590851482681</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3934,31 +3934,31 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>20</v>
       </c>
       <c r="E103">
-        <v>0.20464542475516587</v>
+        <v>0.47694312824894641</v>
       </c>
       <c r="F103">
-        <v>0.12787190133151194</v>
+        <v>0.40022730793969946</v>
       </c>
       <c r="G103">
-        <v>0.24695186388913651</v>
+        <v>0.42119872307137574</v>
       </c>
       <c r="H103">
-        <v>0.13395898783853211</v>
+        <v>0.3722929657069502</v>
       </c>
       <c r="I103">
-        <v>0.16687890658064902</v>
+        <v>0.37647265238606198</v>
       </c>
       <c r="J103">
-        <v>3.6697103250970697E-2</v>
+        <v>0.33061014123970833</v>
       </c>
       <c r="K103">
-        <v>0.85208225439546514</v>
+        <v>0.87779915533504105</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -3969,31 +3969,31 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>0.12787190133151194</v>
+        <v>0.40022730793969946</v>
       </c>
       <c r="F104">
-        <v>0.11123021780158869</v>
+        <v>0.28349414339606577</v>
       </c>
       <c r="G104">
-        <v>0.16687890658064902</v>
+        <v>0.37647265238606198</v>
       </c>
       <c r="H104">
-        <v>3.6697103250970697E-2</v>
+        <v>0.33061014123970833</v>
       </c>
       <c r="I104">
-        <v>0.1936691082224401</v>
+        <v>0.36615641415296019</v>
       </c>
       <c r="J104">
-        <v>9.1215428114138491E-2</v>
+        <v>0.17203300500614038</v>
       </c>
       <c r="K104">
-        <v>0.82920313419668146</v>
+        <v>0.77493709909678354</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4004,31 +4004,31 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105">
-        <v>0.11123021780158869</v>
+        <v>0.28349414339606577</v>
       </c>
       <c r="F105">
-        <v>5.1288003234183609E-2</v>
+        <v>7.4641060549398203E-2</v>
       </c>
       <c r="G105">
-        <v>0.1936691082224401</v>
+        <v>0.36615641415296019</v>
       </c>
       <c r="H105">
-        <v>9.1215428114138491E-2</v>
+        <v>0.17203300500614038</v>
       </c>
       <c r="I105">
-        <v>0.12652930531464407</v>
+        <v>0.13859225988661911</v>
       </c>
       <c r="J105">
-        <v>6.6446704800315295E-2</v>
+        <v>8.112039044764642E-2</v>
       </c>
       <c r="K105">
-        <v>0.57868730293429793</v>
+        <v>0.59393207986358743</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4039,31 +4039,31 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="E106">
-        <v>5.1288003234183609E-2</v>
+        <v>7.4641060549398203E-2</v>
       </c>
       <c r="F106">
-        <v>7.1664481234780766E-2</v>
+        <v>0.21490690960727432</v>
       </c>
       <c r="G106">
-        <v>0.12652930531464407</v>
+        <v>0.13859225988661911</v>
       </c>
       <c r="H106">
-        <v>6.6446704800315295E-2</v>
+        <v>8.112039044764642E-2</v>
       </c>
       <c r="I106">
-        <v>0.10361803882886067</v>
+        <v>0.18070023173400929</v>
       </c>
       <c r="J106">
-        <v>3.9804132433077968E-2</v>
+        <v>0.13312382130482653</v>
       </c>
       <c r="K106">
-        <v>0.71780818122271195</v>
+        <v>0.56973450167963224</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4074,31 +4074,31 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>8</v>
       </c>
       <c r="E107">
-        <v>7.1664481234780766E-2</v>
+        <v>0.21490690960727432</v>
       </c>
       <c r="F107">
-        <v>6.3597160286537058E-2</v>
+        <v>0.10941808663716436</v>
       </c>
       <c r="G107">
-        <v>0.10361803882886067</v>
+        <v>0.18070023173400929</v>
       </c>
       <c r="H107">
-        <v>3.9804132433077968E-2</v>
+        <v>0.13312382130482653</v>
       </c>
       <c r="I107">
-        <v>0.10019921938448549</v>
+        <v>0.15349423871858101</v>
       </c>
       <c r="J107">
-        <v>4.7734148478735278E-2</v>
+        <v>9.0108701400225227E-2</v>
       </c>
       <c r="K107">
-        <v>0.76837171596110809</v>
+        <v>0.56641717634216437</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4109,31 +4109,31 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>11</v>
       </c>
       <c r="E108">
-        <v>6.3597160286537058E-2</v>
+        <v>0.10941808663716436</v>
       </c>
       <c r="F108">
-        <v>0.10321648661948046</v>
+        <v>0.1176807278078823</v>
       </c>
       <c r="G108">
-        <v>0.10019921938448549</v>
+        <v>0.15349423871858101</v>
       </c>
       <c r="H108">
-        <v>4.7734148478735278E-2</v>
+        <v>9.0108701400225227E-2</v>
       </c>
       <c r="I108">
-        <v>0.17976988946914596</v>
+        <v>0.13634048804146853</v>
       </c>
       <c r="J108">
-        <v>9.0908786268942582E-2</v>
+        <v>8.0112885164831726E-2</v>
       </c>
       <c r="K108">
-        <v>0.79385216870819286</v>
+        <v>0.45546844824559141</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4144,31 +4144,31 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>14</v>
       </c>
       <c r="E109">
-        <v>0.10321648661948046</v>
+        <v>0.1176807278078823</v>
       </c>
       <c r="F109">
-        <v>0.17592131010653936</v>
+        <v>0.18441150780364618</v>
       </c>
       <c r="G109">
-        <v>0.17976988946914596</v>
+        <v>0.13634048804146853</v>
       </c>
       <c r="H109">
-        <v>9.0908786268942582E-2</v>
+        <v>8.0112885164831726E-2</v>
       </c>
       <c r="I109">
-        <v>0.22004465658436329</v>
+        <v>0.20707027156329189</v>
       </c>
       <c r="J109">
-        <v>0.14262813376151381</v>
+        <v>9.978515046388034E-2</v>
       </c>
       <c r="K109">
-        <v>0.79200169944655829</v>
+        <v>0.42071199737450821</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,31 +4179,31 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>17</v>
       </c>
       <c r="E110">
-        <v>0.17592131010653936</v>
+        <v>0.18441150780364618</v>
       </c>
       <c r="F110">
-        <v>0.13922056488312917</v>
+        <v>0.15239275770158187</v>
       </c>
       <c r="G110">
-        <v>0.22004465658436329</v>
+        <v>0.20707027156329189</v>
       </c>
       <c r="H110">
-        <v>0.14262813376151381</v>
+        <v>9.978515046388034E-2</v>
       </c>
       <c r="I110">
-        <v>0.18208069647070979</v>
+        <v>0.13390607778660593</v>
       </c>
       <c r="J110">
-        <v>0.1191934579313394</v>
+        <v>5.105460006258631E-2</v>
       </c>
       <c r="K110">
-        <v>0.82599452465642098</v>
+        <v>0.41495373345924524</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4214,31 +4214,31 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>20</v>
       </c>
       <c r="E111">
-        <v>0.13922056488312917</v>
+        <v>0.15239275770158187</v>
       </c>
       <c r="F111">
-        <v>6.038589660810996E-2</v>
+        <v>0.27891597397649881</v>
       </c>
       <c r="G111">
-        <v>0.18208069647070979</v>
+        <v>0.13390607778660593</v>
       </c>
       <c r="H111">
-        <v>0.1191934579313394</v>
+        <v>5.105460006258631E-2</v>
       </c>
       <c r="I111">
-        <v>0.14398063286884893</v>
+        <v>0.13487549491274994</v>
       </c>
       <c r="J111">
-        <v>6.9548565510805002E-2</v>
+        <v>1.9649546633870668E-2</v>
       </c>
       <c r="K111">
-        <v>0.82661599668380858</v>
+        <v>0.43109499785977046</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4249,31 +4249,31 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>23</v>
       </c>
       <c r="E112">
-        <v>6.038589660810996E-2</v>
+        <v>0.27891597397649881</v>
       </c>
       <c r="F112">
-        <v>0.10350504689867161</v>
+        <v>2.2065232942703499E-2</v>
       </c>
       <c r="G112">
-        <v>0.14398063286884893</v>
+        <v>0.13487549491274994</v>
       </c>
       <c r="H112">
-        <v>6.9548565510805002E-2</v>
+        <v>1.9649546633870668E-2</v>
       </c>
       <c r="I112">
-        <v>0.15770557226703702</v>
+        <v>0.14858066500915523</v>
       </c>
       <c r="J112">
-        <v>4.6638820943687334E-2</v>
+        <v>7.1142534699438487E-2</v>
       </c>
       <c r="K112">
-        <v>0.79899476424160898</v>
+        <v>0.63622578795348828</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4284,31 +4284,31 @@
         <v>9</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113">
-        <v>0.10350504689867161</v>
+        <v>2.2065232942703499E-2</v>
       </c>
       <c r="F113">
-        <v>0.12191931500076904</v>
+        <v>5.0470600880877174E-2</v>
       </c>
       <c r="G113">
-        <v>0.15770557226703702</v>
+        <v>0.14858066500915523</v>
       </c>
       <c r="H113">
-        <v>4.6638820943687334E-2</v>
+        <v>7.1142534699438487E-2</v>
       </c>
       <c r="I113">
-        <v>0.10543464357372759</v>
+        <v>0.10551265154376986</v>
       </c>
       <c r="J113">
-        <v>4.2896106633562803E-2</v>
+        <v>6.6765885850095213E-2</v>
       </c>
       <c r="K113">
-        <v>0.7698756349467879</v>
+        <v>0.36102996430872314</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4319,31 +4319,31 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114">
-        <v>0.12191931500076904</v>
+        <v>5.0470600880877174E-2</v>
       </c>
       <c r="F114">
-        <v>0.19127271695950795</v>
+        <v>9.1202903249996567E-2</v>
       </c>
       <c r="G114">
-        <v>0.10543464357372759</v>
+        <v>0.10551265154376986</v>
       </c>
       <c r="H114">
-        <v>4.2896106633562803E-2</v>
+        <v>6.6765885850095213E-2</v>
       </c>
       <c r="I114">
-        <v>0.1786657420329707</v>
+        <v>0.20447742412525807</v>
       </c>
       <c r="J114">
-        <v>3.0037805047383959E-2</v>
+        <v>0.1483008760422298</v>
       </c>
       <c r="K114">
-        <v>0.70576187832726889</v>
+        <v>0.85258305655805455</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,31 +4354,31 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>8</v>
       </c>
       <c r="E115">
-        <v>0.19127271695950795</v>
+        <v>9.1202903249996567E-2</v>
       </c>
       <c r="F115">
-        <v>0.23639117775589391</v>
+        <v>0.1224620103339074</v>
       </c>
       <c r="G115">
-        <v>0.1786657420329707</v>
+        <v>0.20447742412525807</v>
       </c>
       <c r="H115">
-        <v>3.0037805047383959E-2</v>
+        <v>0.1483008760422298</v>
       </c>
       <c r="I115">
-        <v>0.19556880382132547</v>
+        <v>0.22388992180663564</v>
       </c>
       <c r="J115">
-        <v>5.2648627475683579E-2</v>
+        <v>0.1556977435717054</v>
       </c>
       <c r="K115">
-        <v>0.79432612364718314</v>
+        <v>0.86963842574884487</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4389,31 +4389,31 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>11</v>
       </c>
       <c r="E116">
-        <v>0.23639117775589391</v>
+        <v>0.1224620103339074</v>
       </c>
       <c r="F116">
-        <v>0.19967394337367284</v>
+        <v>0.15948140511697162</v>
       </c>
       <c r="G116">
-        <v>0.19556880382132547</v>
+        <v>0.22388992180663564</v>
       </c>
       <c r="H116">
-        <v>5.2648627475683579E-2</v>
+        <v>0.1556977435717054</v>
       </c>
       <c r="I116">
-        <v>0.21193580535780557</v>
+        <v>0.20033471598289371</v>
       </c>
       <c r="J116">
-        <v>8.4184585896222491E-2</v>
+        <v>0.16354978334585696</v>
       </c>
       <c r="K116">
-        <v>0.84626238481352767</v>
+        <v>0.74665093447603437</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4424,31 +4424,31 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>14</v>
       </c>
       <c r="E117">
-        <v>0.19967394337367284</v>
+        <v>0.15948140511697162</v>
       </c>
       <c r="F117">
-        <v>0.17263996750316582</v>
+        <v>0.13709427852315323</v>
       </c>
       <c r="G117">
-        <v>0.21193580535780557</v>
+        <v>0.20033471598289371</v>
       </c>
       <c r="H117">
-        <v>8.4184585896222491E-2</v>
+        <v>0.16354978334585696</v>
       </c>
       <c r="I117">
-        <v>0.21664129205806296</v>
+        <v>0.1680861366413785</v>
       </c>
       <c r="J117">
-        <v>9.2412306747397144E-2</v>
+        <v>0.12021865442100328</v>
       </c>
       <c r="K117">
-        <v>0.82030213114543093</v>
+        <v>0.59819488397871834</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4459,31 +4459,31 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>17</v>
       </c>
       <c r="E118">
-        <v>0.17263996750316582</v>
+        <v>0.13709427852315323</v>
       </c>
       <c r="F118">
-        <v>0.13251359953678657</v>
+        <v>0.1353556303318714</v>
       </c>
       <c r="G118">
-        <v>0.21664129205806296</v>
+        <v>0.1680861366413785</v>
       </c>
       <c r="H118">
-        <v>9.2412306747397144E-2</v>
+        <v>0.12021865442100328</v>
       </c>
       <c r="I118">
-        <v>0.16731881986453892</v>
+        <v>0.12219490695005519</v>
       </c>
       <c r="J118">
-        <v>5.9995023928425123E-2</v>
+        <v>7.1766781450172124E-2</v>
       </c>
       <c r="K118">
-        <v>0.59504785696703788</v>
+        <v>0.52277975826699896</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4494,31 +4494,31 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D119">
         <v>20</v>
       </c>
       <c r="E119">
-        <v>0.13251359953678657</v>
+        <v>0.1353556303318714</v>
       </c>
       <c r="F119">
-        <v>2.9326917071856824E-2</v>
+        <v>0.13345855391755215</v>
       </c>
       <c r="G119">
-        <v>0.16731881986453892</v>
+        <v>0.12219490695005519</v>
       </c>
       <c r="H119">
-        <v>5.9995023928425123E-2</v>
+        <v>7.1766781450172124E-2</v>
       </c>
       <c r="I119">
-        <v>0.17138732367023235</v>
+        <v>0.1465942799741001</v>
       </c>
       <c r="J119">
-        <v>7.2488197306556007E-2</v>
+        <v>3.7973491837083817E-2</v>
       </c>
       <c r="K119">
-        <v>0.52206175593722448</v>
+        <v>0.43023946609457964</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,31 +4529,31 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D120">
         <v>23</v>
       </c>
       <c r="E120">
-        <v>2.9326917071856824E-2</v>
+        <v>0.13345855391755215</v>
       </c>
       <c r="F120">
-        <v>8.4983599264303211E-2</v>
+        <v>0.21229081279609321</v>
       </c>
       <c r="G120">
-        <v>0.17138732367023235</v>
+        <v>0.1465942799741001</v>
       </c>
       <c r="H120">
-        <v>7.2488197306556007E-2</v>
+        <v>3.7973491837083817E-2</v>
       </c>
       <c r="I120">
-        <v>0.24152881226558942</v>
+        <v>0.10612497414530339</v>
       </c>
       <c r="J120">
-        <v>9.3255049150031702E-2</v>
+        <v>3.9214819592006789E-2</v>
       </c>
       <c r="K120">
-        <v>0.5303576068160275</v>
+        <v>0.27011810418841398</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4564,31 +4564,31 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>8.4983599264303211E-2</v>
+        <v>0.21229081279609321</v>
       </c>
       <c r="F121">
-        <v>6.1115541885493258E-2</v>
+        <v>8.7035022305475135E-2</v>
       </c>
       <c r="G121">
-        <v>0.24152881226558942</v>
+        <v>0.10612497414530339</v>
       </c>
       <c r="H121">
-        <v>9.3255049150031702E-2</v>
+        <v>3.9214819592006789E-2</v>
       </c>
       <c r="I121">
-        <v>0.10119453208381124</v>
+        <v>0.16564080220715097</v>
       </c>
       <c r="J121">
-        <v>2.1226329956941764E-2</v>
+        <v>8.5909265181368544E-2</v>
       </c>
       <c r="K121">
-        <v>0.61383855446507396</v>
+        <v>0.33253319165138001</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -4599,31 +4599,31 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>5</v>
       </c>
       <c r="E122">
-        <v>6.1115541885493258E-2</v>
+        <v>8.7035022305475135E-2</v>
       </c>
       <c r="F122">
-        <v>3.8756242537882707E-2</v>
+        <v>1.0577561867642889E-2</v>
       </c>
       <c r="G122">
-        <v>0.10119453208381124</v>
+        <v>0.16564080220715097</v>
       </c>
       <c r="H122">
-        <v>2.1226329956941764E-2</v>
+        <v>8.5909265181368544E-2</v>
       </c>
       <c r="I122">
-        <v>8.2066807519473456E-2</v>
+        <v>0.19532121486235651</v>
       </c>
       <c r="J122">
-        <v>2.1109339873370901E-2</v>
+        <v>0.12381149325588123</v>
       </c>
       <c r="K122">
-        <v>0.49170558578702206</v>
+        <v>0.47597520456242204</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -4634,31 +4634,31 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D123">
         <v>8</v>
       </c>
       <c r="E123">
-        <v>3.8756242537882707E-2</v>
+        <v>1.0577561867642889E-2</v>
       </c>
       <c r="F123">
-        <v>8.893275279951908E-2</v>
+        <v>0.14348421685232696</v>
       </c>
       <c r="G123">
-        <v>8.2066807519473456E-2</v>
+        <v>0.19532121486235651</v>
       </c>
       <c r="H123">
-        <v>2.1109339873370901E-2</v>
+        <v>0.12381149325588123</v>
       </c>
       <c r="I123">
-        <v>0.12633308167114288</v>
+        <v>0.15675226775843695</v>
       </c>
       <c r="J123">
-        <v>6.9497985170293791E-2</v>
+        <v>9.3955117611172034E-2</v>
       </c>
       <c r="K123">
-        <v>0.74941390959483944</v>
+        <v>0.65228887537335245</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4669,31 +4669,31 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>11</v>
       </c>
       <c r="E124">
-        <v>8.893275279951908E-2</v>
+        <v>0.14348421685232696</v>
       </c>
       <c r="F124">
-        <v>6.5934498547985276E-2</v>
+        <v>0.12553308050355477</v>
       </c>
       <c r="G124">
-        <v>0.12633308167114288</v>
+        <v>0.15675226775843695</v>
       </c>
       <c r="H124">
-        <v>6.9497985170293791E-2</v>
+        <v>9.3955117611172034E-2</v>
       </c>
       <c r="I124">
-        <v>0.18554074818955965</v>
+        <v>0.16732804972321119</v>
       </c>
       <c r="J124">
-        <v>8.7727600463766015E-2</v>
+        <v>0.1178221434659779</v>
       </c>
       <c r="K124">
-        <v>0.69096750073094826</v>
+        <v>0.56126510572641797</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -4704,31 +4704,31 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D125">
         <v>14</v>
       </c>
       <c r="E125">
-        <v>6.5934498547985276E-2</v>
+        <v>0.12553308050355477</v>
       </c>
       <c r="F125">
-        <v>9.2313030355758136E-2</v>
+        <v>0.14824112580557705</v>
       </c>
       <c r="G125">
-        <v>0.18554074818955965</v>
+        <v>0.16732804972321119</v>
       </c>
       <c r="H125">
-        <v>8.7727600463766015E-2</v>
+        <v>0.1178221434659779</v>
       </c>
       <c r="I125">
-        <v>0.16176207786539212</v>
+        <v>0.16351117346775002</v>
       </c>
       <c r="J125">
-        <v>6.0306503315924437E-2</v>
+        <v>0.12480279180320733</v>
       </c>
       <c r="K125">
-        <v>0.6366151840228047</v>
+        <v>0.59706688744188885</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4739,31 +4739,31 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D126">
         <v>17</v>
       </c>
       <c r="E126">
-        <v>9.2313030355758136E-2</v>
+        <v>0.14824112580557705</v>
       </c>
       <c r="F126">
-        <v>6.3139586129533964E-2</v>
+        <v>0.19545273627071175</v>
       </c>
       <c r="G126">
-        <v>0.16176207786539212</v>
+        <v>0.16351117346775002</v>
       </c>
       <c r="H126">
-        <v>6.0306503315924437E-2</v>
+        <v>0.12480279180320733</v>
       </c>
       <c r="I126">
-        <v>0.13647454142022072</v>
+        <v>0.16339093281967026</v>
       </c>
       <c r="J126">
-        <v>5.9199009124871325E-2</v>
+        <v>0.10585457053957903</v>
       </c>
       <c r="K126">
-        <v>0.68779647424158685</v>
+        <v>0.59589412196910962</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -4774,31 +4774,31 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D127">
         <v>20</v>
       </c>
       <c r="E127">
-        <v>6.3139586129533964E-2</v>
+        <v>0.19545273627071175</v>
       </c>
       <c r="F127">
-        <v>1.0495885480813358E-2</v>
+        <v>0.23750933609393837</v>
       </c>
       <c r="G127">
-        <v>0.13647454142022072</v>
+        <v>0.16339093281967026</v>
       </c>
       <c r="H127">
-        <v>5.9199009124871325E-2</v>
+        <v>0.10585457053957903</v>
       </c>
       <c r="I127">
-        <v>0.11792461153696154</v>
+        <v>0.19188342221171673</v>
       </c>
       <c r="J127">
-        <v>5.3833443606498547E-2</v>
+        <v>8.3317533787119993E-2</v>
       </c>
       <c r="K127">
-        <v>0.69908967013816592</v>
+        <v>0.31527230734352774</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -4809,31 +4809,31 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D128">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>1.0495885480813358E-2</v>
+        <v>0.23750933609393837</v>
       </c>
       <c r="F128">
-        <v>6.6742467329720473E-2</v>
+        <v>0.31188529341678739</v>
       </c>
       <c r="G128">
-        <v>0.11792461153696154</v>
+        <v>0.19188342221171673</v>
       </c>
       <c r="H128">
-        <v>5.3833443606498547E-2</v>
+        <v>8.3317533787119993E-2</v>
       </c>
       <c r="I128">
-        <v>0.12251352976199628</v>
+        <v>0.12988524488229114</v>
       </c>
       <c r="J128">
-        <v>4.6369859511038385E-2</v>
+        <v>6.8732199486456869E-2</v>
       </c>
       <c r="K128">
-        <v>0.56977070378246353</v>
+        <v>0.31192245180252043</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -4844,31 +4844,31 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129">
-        <v>6.6742467329720473E-2</v>
+        <v>0.31188529341678739</v>
       </c>
       <c r="F129">
-        <v>0.14261320930847643</v>
+        <v>0.11300506409721546</v>
       </c>
       <c r="G129">
-        <v>0.12251352976199628</v>
+        <v>0.12988524488229114</v>
       </c>
       <c r="H129">
-        <v>4.6369859511038385E-2</v>
+        <v>6.8732199486456869E-2</v>
       </c>
       <c r="I129">
-        <v>0.15158372482958013</v>
+        <v>0.16728632013814179</v>
       </c>
       <c r="J129">
-        <v>0.11179944897516819</v>
+        <v>6.3190469934507609E-2</v>
       </c>
       <c r="K129">
-        <v>0.59308290255442464</v>
+        <v>0.22524372628290434</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -4879,31 +4879,31 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
       <c r="E130">
-        <v>0.14261320930847643</v>
+        <v>0.11300506409721546</v>
       </c>
       <c r="F130">
-        <v>0.12496156480138418</v>
+        <v>3.6580101756416523E-2</v>
       </c>
       <c r="G130">
-        <v>0.15158372482958013</v>
+        <v>0.16728632013814179</v>
       </c>
       <c r="H130">
-        <v>0.11179944897516819</v>
+        <v>6.3190469934507609E-2</v>
       </c>
       <c r="I130">
-        <v>0.14660350960399882</v>
+        <v>0.20450879139343286</v>
       </c>
       <c r="J130">
-        <v>8.061237859076674E-2</v>
+        <v>0.11027034501813283</v>
       </c>
       <c r="K130">
-        <v>0.7090329120624842</v>
+        <v>0.41338637238389109</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -4914,31 +4914,31 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D131">
         <v>8</v>
       </c>
       <c r="E131">
-        <v>0.12496156480138418</v>
+        <v>3.6580101756416523E-2</v>
       </c>
       <c r="F131">
-        <v>9.0573424101205849E-2</v>
+        <v>7.8098045621316087E-2</v>
       </c>
       <c r="G131">
-        <v>0.14660350960399882</v>
+        <v>0.20450879139343286</v>
       </c>
       <c r="H131">
-        <v>8.061237859076674E-2</v>
+        <v>0.11027034501813283</v>
       </c>
       <c r="I131">
-        <v>0.13185491495507645</v>
+        <v>0.19189440604097524</v>
       </c>
       <c r="J131">
-        <v>4.2083403214779339E-2</v>
+        <v>0.10255646045627011</v>
       </c>
       <c r="K131">
-        <v>0.70512729352165637</v>
+        <v>0.43152638478207134</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -4949,31 +4949,31 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D132">
         <v>11</v>
       </c>
       <c r="E132">
-        <v>9.0573424101205849E-2</v>
+        <v>7.8098045621316087E-2</v>
       </c>
       <c r="F132">
-        <v>0.12017970874621672</v>
+        <v>0.1931534959056054</v>
       </c>
       <c r="G132">
-        <v>0.13185491495507645</v>
+        <v>0.19189440604097524</v>
       </c>
       <c r="H132">
-        <v>4.2083403214779339E-2</v>
+        <v>0.10255646045627011</v>
       </c>
       <c r="I132">
-        <v>0.15591528883466729</v>
+        <v>0.18515843050988584</v>
       </c>
       <c r="J132">
-        <v>9.5073028989235697E-2</v>
+        <v>0.10047748039800493</v>
       </c>
       <c r="K132">
-        <v>0.73463205776477236</v>
+        <v>0.43653934223180657</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -4984,31 +4984,31 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D133">
         <v>14</v>
       </c>
       <c r="E133">
-        <v>0.12017970874621672</v>
+        <v>0.1931534959056054</v>
       </c>
       <c r="F133">
-        <v>9.0478611438043047E-2</v>
+        <v>0.37370886076052207</v>
       </c>
       <c r="G133">
-        <v>0.15591528883466729</v>
+        <v>0.18515843050988584</v>
       </c>
       <c r="H133">
-        <v>9.5073028989235697E-2</v>
+        <v>0.10047748039800493</v>
       </c>
       <c r="I133">
-        <v>0.16322651397879884</v>
+        <v>0.31903164028210074</v>
       </c>
       <c r="J133">
-        <v>8.7524868923895063E-2</v>
+        <v>0.14306547870425296</v>
       </c>
       <c r="K133">
-        <v>0.74649128051153291</v>
+        <v>0.46108088495443889</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5019,31 +5019,31 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D134">
         <v>17</v>
       </c>
       <c r="E134">
-        <v>9.0478611438043047E-2</v>
+        <v>0.37370886076052207</v>
       </c>
       <c r="F134">
-        <v>4.8839363150761657E-2</v>
+        <v>0.47145907437457613</v>
       </c>
       <c r="G134">
-        <v>0.16322651397879884</v>
+        <v>0.31903164028210074</v>
       </c>
       <c r="H134">
-        <v>8.7524868923895063E-2</v>
+        <v>0.14306547870425296</v>
       </c>
       <c r="I134">
-        <v>0.15791113118911149</v>
+        <v>0.38235464324295221</v>
       </c>
       <c r="J134">
-        <v>9.5648814672865831E-2</v>
+        <v>0.19811574009901708</v>
       </c>
       <c r="K134">
-        <v>0.81540160772528603</v>
+        <v>0.49076009298202494</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5054,31 +5054,31 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D135">
         <v>20</v>
       </c>
       <c r="E135">
-        <v>4.8839363150761657E-2</v>
+        <v>0.47145907437457613</v>
       </c>
       <c r="F135">
-        <v>9.2362497832190915E-2</v>
+        <v>0.35555867356742088</v>
       </c>
       <c r="G135">
-        <v>0.15791113118911149</v>
+        <v>0.38235464324295221</v>
       </c>
       <c r="H135">
-        <v>9.5648814672865831E-2</v>
+        <v>0.19811574009901708</v>
       </c>
       <c r="I135">
-        <v>0.10169849415931806</v>
+        <v>0.33908727049665649</v>
       </c>
       <c r="J135">
-        <v>3.7419935677656932E-2</v>
+        <v>0.20132116292322055</v>
       </c>
       <c r="K135">
-        <v>0.71664364466578545</v>
+        <v>0.66177323443764935</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5089,31 +5089,31 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D136">
         <v>23</v>
       </c>
       <c r="E136">
-        <v>9.2362497832190915E-2</v>
+        <v>0.35555867356742088</v>
       </c>
       <c r="F136">
-        <v>6.4116568789081119E-2</v>
+        <v>0.31248244594977437</v>
       </c>
       <c r="G136">
-        <v>0.10169849415931806</v>
+        <v>0.33908727049665649</v>
       </c>
       <c r="H136">
-        <v>3.7419935677656932E-2</v>
+        <v>0.20132116292322055</v>
       </c>
       <c r="I136">
-        <v>7.0447643196844489E-2</v>
+        <v>0.23746929388402355</v>
       </c>
       <c r="J136">
-        <v>3.5386355732365544E-2</v>
+        <v>3.1999485105003778E-2</v>
       </c>
       <c r="K136">
-        <v>0.46560447608310673</v>
+        <v>0.49946925182578006</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5124,31 +5124,31 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>6.4116568789081119E-2</v>
+        <v>0.31248244594977437</v>
       </c>
       <c r="F137">
-        <v>0.38265001640877416</v>
+        <v>0.15023975877312534</v>
       </c>
       <c r="G137">
-        <v>7.0447643196844489E-2</v>
+        <v>0.23746929388402355</v>
       </c>
       <c r="H137">
-        <v>3.5386355732365544E-2</v>
+        <v>3.1999485105003778E-2</v>
       </c>
       <c r="I137">
-        <v>0.52817274284480542</v>
+        <v>0.18160058474612556</v>
       </c>
       <c r="J137">
-        <v>0.28923786601481222</v>
+        <v>8.9467431101720146E-2</v>
       </c>
       <c r="K137">
-        <v>0.27302066914080436</v>
+        <v>0.59286022921290649</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5159,31 +5159,31 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138">
-        <v>0.38265001640877416</v>
+        <v>0.15023975877312534</v>
       </c>
       <c r="F138">
-        <v>0.28474563596892338</v>
+        <v>0.18890843198062982</v>
       </c>
       <c r="G138">
-        <v>0.52817274284480542</v>
+        <v>0.18160058474612556</v>
       </c>
       <c r="H138">
-        <v>0.28923786601481222</v>
+        <v>8.9467431101720146E-2</v>
       </c>
       <c r="I138">
-        <v>0.49820905573323987</v>
+        <v>0.1745432854174685</v>
       </c>
       <c r="J138">
-        <v>0.21804797367645118</v>
+        <v>6.0718335502738238E-2</v>
       </c>
       <c r="K138">
-        <v>0.75863823250448736</v>
+        <v>0.46329184703027737</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5194,31 +5194,31 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D139">
         <v>8</v>
       </c>
       <c r="E139">
-        <v>0.28474563596892338</v>
+        <v>0.18890843198062982</v>
       </c>
       <c r="F139">
-        <v>0.42922776775992683</v>
+        <v>8.81968292744158E-2</v>
       </c>
       <c r="G139">
-        <v>0.49820905573323987</v>
+        <v>0.1745432854174685</v>
       </c>
       <c r="H139">
-        <v>0.21804797367645118</v>
+        <v>6.0718335502738238E-2</v>
       </c>
       <c r="I139">
-        <v>0.59449410109968071</v>
+        <v>0.25676133222036734</v>
       </c>
       <c r="J139">
-        <v>0.45697712597097456</v>
+        <v>0.11416982590913301</v>
       </c>
       <c r="K139">
-        <v>0.86901448024971506</v>
+        <v>0.33252475763193956</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5229,31 +5229,31 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D140">
         <v>11</v>
       </c>
       <c r="E140">
-        <v>0.42922776775992683</v>
+        <v>8.81968292744158E-2</v>
       </c>
       <c r="F140">
-        <v>0.64090734399514104</v>
+        <v>0.1338322820334352</v>
       </c>
       <c r="G140">
-        <v>0.59449410109968071</v>
+        <v>0.25676133222036734</v>
       </c>
       <c r="H140">
-        <v>0.45697712597097456</v>
+        <v>0.11416982590913301</v>
       </c>
       <c r="I140">
-        <v>0.70147746488862661</v>
+        <v>0.16683159182014923</v>
       </c>
       <c r="J140">
-        <v>0.55603250479056388</v>
+        <v>0.1286224924769114</v>
       </c>
       <c r="K140">
-        <v>0.92708151312603171</v>
+        <v>0.32994722494125817</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5264,31 +5264,31 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D141">
         <v>14</v>
       </c>
       <c r="E141">
-        <v>0.64090734399514104</v>
+        <v>0.1338322820334352</v>
       </c>
       <c r="F141">
-        <v>0.69297186294062796</v>
+        <v>0.19910470992482948</v>
       </c>
       <c r="G141">
-        <v>0.70147746488862661</v>
+        <v>0.16683159182014923</v>
       </c>
       <c r="H141">
-        <v>0.55603250479056388</v>
+        <v>0.1286224924769114</v>
       </c>
       <c r="I141">
-        <v>0.67049819748067718</v>
+        <v>0.17859368972127815</v>
       </c>
       <c r="J141">
-        <v>0.56708957338490118</v>
+        <v>0.10171208265628481</v>
       </c>
       <c r="K141">
-        <v>0.9380055034168574</v>
+        <v>0.36092297311708954</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5299,31 +5299,31 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D142">
         <v>17</v>
       </c>
       <c r="E142">
-        <v>0.69297186294062796</v>
+        <v>0.19910470992482948</v>
       </c>
       <c r="F142">
-        <v>0.65298565282414156</v>
+        <v>0.15393641731066388</v>
       </c>
       <c r="G142">
-        <v>0.67049819748067718</v>
+        <v>0.17859368972127815</v>
       </c>
       <c r="H142">
-        <v>0.56708957338490118</v>
+        <v>0.10171208265628481</v>
       </c>
       <c r="I142">
-        <v>0.66738047113249443</v>
+        <v>0.14344081967071493</v>
       </c>
       <c r="J142">
-        <v>0.55197088347033785</v>
+        <v>5.1202931318580988E-2</v>
       </c>
       <c r="K142">
-        <v>0.95973412619990839</v>
+        <v>0.58721964579028563</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5334,31 +5334,31 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>20</v>
       </c>
       <c r="E143">
-        <v>0.65298565282414156</v>
+        <v>0.15393641731066388</v>
       </c>
       <c r="F143">
-        <v>0.70739987690018491</v>
+        <v>7.5851614663888831E-2</v>
       </c>
       <c r="G143">
-        <v>0.66738047113249443</v>
+        <v>0.14344081967071493</v>
       </c>
       <c r="H143">
-        <v>0.55197088347033785</v>
+        <v>5.1202931318580988E-2</v>
       </c>
       <c r="I143">
-        <v>0.62450794546273791</v>
+        <v>0.18211706760113083</v>
       </c>
       <c r="J143">
-        <v>0.5498431763545959</v>
+        <v>3.0534570866790123E-2</v>
       </c>
       <c r="K143">
-        <v>0.96936707150827273</v>
+        <v>0.55857254802944023</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -5369,31 +5369,31 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>23</v>
       </c>
       <c r="E144">
-        <v>0.70739987690018491</v>
+        <v>7.5851614663888831E-2</v>
       </c>
       <c r="F144">
-        <v>0.73543144687875273</v>
+        <v>0.1199555946002137</v>
       </c>
       <c r="G144">
-        <v>0.62450794546273791</v>
+        <v>0.18211706760113083</v>
       </c>
       <c r="H144">
-        <v>0.5498431763545959</v>
+        <v>3.0534570866790123E-2</v>
       </c>
       <c r="I144">
-        <v>0.58849448073244837</v>
+        <v>0.12203847653045537</v>
       </c>
       <c r="J144">
-        <v>0.49411170513783897</v>
+        <v>3.3740168215732474E-2</v>
       </c>
       <c r="K144">
-        <v>0.96786138651712594</v>
+        <v>0.75109621381443126</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5404,31 +5404,31 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0.73543144687875273</v>
+        <v>0.1199555946002137</v>
       </c>
       <c r="F145">
-        <v>0.55281401304778899</v>
+        <v>0.10456774565494351</v>
       </c>
       <c r="G145">
-        <v>0.58849448073244837</v>
+        <v>0.12203847653045537</v>
       </c>
       <c r="H145">
-        <v>0.49411170513783897</v>
+        <v>3.3740168215732474E-2</v>
       </c>
       <c r="I145">
-        <v>0.55049045042846989</v>
+        <v>0.1869012308211872</v>
       </c>
       <c r="J145">
-        <v>0.46616911336413192</v>
+        <v>0.10982949196357956</v>
       </c>
       <c r="K145">
-        <v>0.96438916209665282</v>
+        <v>0.56313393224141539</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5439,31 +5439,31 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="E146">
-        <v>0.55281401304778899</v>
+        <v>0.10456774565494351</v>
       </c>
       <c r="F146">
-        <v>0.41735557341606278</v>
+        <v>0.15483011497907975</v>
       </c>
       <c r="G146">
-        <v>0.55049045042846989</v>
+        <v>0.1869012308211872</v>
       </c>
       <c r="H146">
-        <v>0.46616911336413192</v>
+        <v>0.10982949196357956</v>
       </c>
       <c r="I146">
-        <v>0.53515694977229122</v>
+        <v>0.25053568449399616</v>
       </c>
       <c r="J146">
-        <v>0.44644929645585618</v>
+        <v>0.15675908234206967</v>
       </c>
       <c r="K146">
-        <v>0.95932333974137785</v>
+        <v>0.73458298090249008</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -5474,31 +5474,31 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D147">
         <v>8</v>
       </c>
       <c r="E147">
-        <v>0.41735557341606278</v>
+        <v>0.15483011497907975</v>
       </c>
       <c r="F147">
-        <v>0.37590182816540429</v>
+        <v>0.17309404551179752</v>
       </c>
       <c r="G147">
-        <v>0.53515694977229122</v>
+        <v>0.25053568449399616</v>
       </c>
       <c r="H147">
-        <v>0.44644929645585618</v>
+        <v>0.15675908234206967</v>
       </c>
       <c r="I147">
-        <v>0.51096620137465698</v>
+        <v>0.22737813435214793</v>
       </c>
       <c r="J147">
-        <v>0.41941390711537574</v>
+        <v>0.15132531934430996</v>
       </c>
       <c r="K147">
-        <v>0.95033279194667342</v>
+        <v>0.94127288143837184</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5509,31 +5509,31 @@
         <v>9</v>
       </c>
       <c r="C148">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D148">
         <v>11</v>
       </c>
       <c r="E148">
-        <v>0.37590182816540429</v>
+        <v>0.17309404551179752</v>
       </c>
       <c r="F148">
-        <v>0.43462796727050385</v>
+        <v>0.15172654671239907</v>
       </c>
       <c r="G148">
-        <v>0.51096620137465698</v>
+        <v>0.22737813435214793</v>
       </c>
       <c r="H148">
-        <v>0.41941390711537574</v>
+        <v>0.15132531934430996</v>
       </c>
       <c r="I148">
-        <v>0.46092698717170288</v>
+        <v>0.26674976337489853</v>
       </c>
       <c r="J148">
-        <v>0.35655219328235654</v>
+        <v>0.16463126469978862</v>
       </c>
       <c r="K148">
-        <v>0.94617230165921296</v>
+        <v>0.7978185877936006</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5544,31 +5544,31 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D149">
         <v>14</v>
       </c>
       <c r="E149">
-        <v>0.43462796727050385</v>
+        <v>0.15172654671239907</v>
       </c>
       <c r="F149">
-        <v>0.40062319951267938</v>
+        <v>0.15956671262168404</v>
       </c>
       <c r="G149">
-        <v>0.46092698717170288</v>
+        <v>0.26674976337489853</v>
       </c>
       <c r="H149">
-        <v>0.35655219328235654</v>
+        <v>0.16463126469978862</v>
       </c>
       <c r="I149">
-        <v>0.42541800580806743</v>
+        <v>0.19941739067085418</v>
       </c>
       <c r="J149">
-        <v>0.32599718224630808</v>
+        <v>0.12507780417217118</v>
       </c>
       <c r="K149">
-        <v>0.94096858961353036</v>
+        <v>0.79396229051051881</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -5579,31 +5579,31 @@
         <v>9</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D150">
         <v>17</v>
       </c>
       <c r="E150">
-        <v>0.40062319951267938</v>
+        <v>0.15956671262168404</v>
       </c>
       <c r="F150">
-        <v>0.32455458762819239</v>
+        <v>7.2776482232112291E-2</v>
       </c>
       <c r="G150">
-        <v>0.42541800580806743</v>
+        <v>0.19941739067085418</v>
       </c>
       <c r="H150">
-        <v>0.32599718224630808</v>
+        <v>0.12507780417217118</v>
       </c>
       <c r="I150">
-        <v>0.35668852478562435</v>
+        <v>0.16354418651615465</v>
       </c>
       <c r="J150">
-        <v>0.27573255061124136</v>
+        <v>8.0966798784206526E-2</v>
       </c>
       <c r="K150">
-        <v>0.93198623678480952</v>
+        <v>0.69172093790535705</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -5614,31 +5614,31 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D151">
         <v>20</v>
       </c>
       <c r="E151">
-        <v>0.32455458762819239</v>
+        <v>7.2776482232112291E-2</v>
       </c>
       <c r="F151">
-        <v>0.33051954082804352</v>
+        <v>4.0513996402298171E-2</v>
       </c>
       <c r="G151">
-        <v>0.35668852478562435</v>
+        <v>0.16354418651615465</v>
       </c>
       <c r="H151">
-        <v>0.27573255061124136</v>
+        <v>8.0966798784206526E-2</v>
       </c>
       <c r="I151">
-        <v>0.32160393406716281</v>
+        <v>0.11533906495790353</v>
       </c>
       <c r="J151">
-        <v>0.13483675872796941</v>
+        <v>4.3329977480118631E-2</v>
       </c>
       <c r="K151">
-        <v>0.92453606757545481</v>
+        <v>0.66304688526240718</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -5649,31 +5649,31 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D152">
         <v>23</v>
       </c>
       <c r="E152">
-        <v>0.33051954082804352</v>
+        <v>4.0513996402298171E-2</v>
       </c>
       <c r="F152">
-        <v>0.18628886870890671</v>
+        <v>9.657727604687949E-2</v>
       </c>
       <c r="G152">
-        <v>0.32160393406716281</v>
+        <v>0.11533906495790353</v>
       </c>
       <c r="H152">
-        <v>0.13483675872796941</v>
+        <v>4.3329977480118631E-2</v>
       </c>
       <c r="I152">
-        <v>0.29852545175360318</v>
+        <v>0.12363339800088023</v>
       </c>
       <c r="J152">
-        <v>0.10569756113131451</v>
+        <v>7.7504863505563723E-2</v>
       </c>
       <c r="K152">
-        <v>0.67208824558430702</v>
+        <v>0.7139570331542896</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -5684,31 +5684,31 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0.18628886870890671</v>
+        <v>9.657727604687949E-2</v>
       </c>
       <c r="F153">
-        <v>0.10209110153063503</v>
+        <v>0.14532035933470872</v>
       </c>
       <c r="G153">
-        <v>0.29852545175360318</v>
+        <v>0.12363339800088023</v>
       </c>
       <c r="H153">
-        <v>0.10569756113131451</v>
+        <v>7.7504863505563723E-2</v>
       </c>
       <c r="I153">
-        <v>0.1628315664190951</v>
+        <v>0.18304220569808466</v>
       </c>
       <c r="J153">
-        <v>7.4682727544063326E-2</v>
+        <v>0.11879298042338546</v>
       </c>
       <c r="K153">
-        <v>0.4590812906349544</v>
+        <v>0.72206452079403405</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -5719,31 +5719,31 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="E154">
-        <v>0.10209110153063503</v>
+        <v>0.14532035933470872</v>
       </c>
       <c r="F154">
-        <v>0.143767450425241</v>
+        <v>0.17077449383604532</v>
       </c>
       <c r="G154">
-        <v>0.1628315664190951</v>
+        <v>0.18304220569808466</v>
       </c>
       <c r="H154">
-        <v>7.4682727544063326E-2</v>
+        <v>0.11879298042338546</v>
       </c>
       <c r="I154">
-        <v>0.14896629905403946</v>
+        <v>0.19031168734167009</v>
       </c>
       <c r="J154">
-        <v>4.6664150444705316E-2</v>
+        <v>0.15413845194390141</v>
       </c>
       <c r="K154">
-        <v>0.52031500623052673</v>
+        <v>0.93789913740766373</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -5754,31 +5754,31 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D155">
         <v>8</v>
       </c>
       <c r="E155">
-        <v>0.143767450425241</v>
+        <v>0.17077449383604532</v>
       </c>
       <c r="F155">
-        <v>7.9327817792156877E-2</v>
+        <v>0.14898451977521393</v>
       </c>
       <c r="G155">
-        <v>0.14896629905403946</v>
+        <v>0.19031168734167009</v>
       </c>
       <c r="H155">
-        <v>4.6664150444705316E-2</v>
+        <v>0.15413845194390141</v>
       </c>
       <c r="I155">
-        <v>0.21358259166866855</v>
+        <v>0.21869586394761165</v>
       </c>
       <c r="J155">
-        <v>0.106807561480466</v>
+        <v>0.17302891102360396</v>
       </c>
       <c r="K155">
-        <v>0.71632914913090495</v>
+        <v>0.84068993591209562</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -5789,31 +5789,31 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D156">
         <v>11</v>
       </c>
       <c r="E156">
-        <v>7.9327817792156877E-2</v>
+        <v>0.14898451977521393</v>
       </c>
       <c r="F156">
-        <v>0.11566167923202404</v>
+        <v>0.15641845947158259</v>
       </c>
       <c r="G156">
-        <v>0.21358259166866855</v>
+        <v>0.21869586394761165</v>
       </c>
       <c r="H156">
-        <v>0.106807561480466</v>
+        <v>0.17302891102360396</v>
       </c>
       <c r="I156">
-        <v>0.18074502378016177</v>
+        <v>0.20559837612928608</v>
       </c>
       <c r="J156">
-        <v>9.9927172016645208E-2</v>
+        <v>0.15773604438542957</v>
       </c>
       <c r="K156">
-        <v>0.76783574903940166</v>
+        <v>0.78617950312602458</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -5824,31 +5824,31 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D157">
         <v>14</v>
       </c>
       <c r="E157">
-        <v>0.11566167923202404</v>
+        <v>0.15641845947158259</v>
       </c>
       <c r="F157">
-        <v>0.13395227864303952</v>
+        <v>0.16413269525486349</v>
       </c>
       <c r="G157">
-        <v>0.18074502378016177</v>
+        <v>0.20559837612928608</v>
       </c>
       <c r="H157">
-        <v>9.9927172016645208E-2</v>
+        <v>0.15773604438542957</v>
       </c>
       <c r="I157">
-        <v>0.21179552379015779</v>
+        <v>0.18733215988020285</v>
       </c>
       <c r="J157">
-        <v>9.8433679520082723E-2</v>
+        <v>0.13325426833231394</v>
       </c>
       <c r="K157">
-        <v>0.83666014687459045</v>
+        <v>0.70155272902228849</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -5859,31 +5859,31 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D158">
         <v>17</v>
       </c>
       <c r="E158">
-        <v>0.13395227864303952</v>
+        <v>0.16413269525486349</v>
       </c>
       <c r="F158">
-        <v>0.1573132943884136</v>
+        <v>9.9782400866789259E-2</v>
       </c>
       <c r="G158">
-        <v>0.21179552379015779</v>
+        <v>0.18733215988020285</v>
       </c>
       <c r="H158">
-        <v>9.8433679520082723E-2</v>
+        <v>0.13325426833231394</v>
       </c>
       <c r="I158">
-        <v>0.21327386677249635</v>
+        <v>0.14055952860693305</v>
       </c>
       <c r="J158">
-        <v>0.13943982619227888</v>
+        <v>4.4674808601882193E-2</v>
       </c>
       <c r="K158">
-        <v>0.87486779578387486</v>
+        <v>0.59493037826933004</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -5894,31 +5894,31 @@
         <v>9</v>
       </c>
       <c r="C159">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D159">
         <v>20</v>
       </c>
       <c r="E159">
-        <v>0.1573132943884136</v>
+        <v>9.9782400866789259E-2</v>
       </c>
       <c r="F159">
-        <v>0.12360945377888856</v>
+        <v>8.9695804000077026E-2</v>
       </c>
       <c r="G159">
-        <v>0.21327386677249635</v>
+        <v>0.14055952860693305</v>
       </c>
       <c r="H159">
-        <v>0.13943982619227888</v>
+        <v>4.4674808601882193E-2</v>
       </c>
       <c r="I159">
-        <v>0.16209039909033679</v>
+        <v>0.11720687893653908</v>
       </c>
       <c r="J159">
-        <v>8.0003762873151765E-2</v>
+        <v>2.8983650685128703E-2</v>
       </c>
       <c r="K159">
-        <v>0.87929819833719391</v>
+        <v>0.45303649973830817</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -5929,31 +5929,31 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D160">
         <v>23</v>
       </c>
       <c r="E160">
-        <v>0.12360945377888856</v>
+        <v>8.9695804000077026E-2</v>
       </c>
       <c r="F160">
-        <v>0.1141735326493383</v>
+        <v>9.8965886178827442E-2</v>
       </c>
       <c r="G160">
-        <v>0.16209039909033679</v>
+        <v>0.11720687893653908</v>
       </c>
       <c r="H160">
-        <v>8.0003762873151765E-2</v>
+        <v>2.8983650685128703E-2</v>
       </c>
       <c r="I160">
-        <v>0.16924404611578894</v>
+        <v>0.13319826408508117</v>
       </c>
       <c r="J160">
-        <v>7.3595881947144975E-2</v>
+        <v>8.0749286170847215E-2</v>
       </c>
       <c r="K160">
-        <v>0.8113534803144945</v>
+        <v>0.67794509643389222</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -5964,31 +5964,31 @@
         <v>9</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0.1141735326493383</v>
+        <v>9.8965886178827442E-2</v>
       </c>
       <c r="F161">
-        <v>0.18728646281696748</v>
+        <v>0.24536168878961082</v>
       </c>
       <c r="G161">
-        <v>0.16924404611578894</v>
+        <v>0.13319826408508117</v>
       </c>
       <c r="H161">
-        <v>7.3595881947144975E-2</v>
+        <v>8.0749286170847215E-2</v>
       </c>
       <c r="I161">
-        <v>0.21159172753888755</v>
+        <v>0.20945159691465837</v>
       </c>
       <c r="J161">
-        <v>0.13390197937122561</v>
+        <v>0.15258666197389015</v>
       </c>
       <c r="K161">
-        <v>0.78631004763242962</v>
+        <v>0.82143946303011028</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -5999,31 +5999,31 @@
         <v>9</v>
       </c>
       <c r="C162">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="E162">
-        <v>0.18728646281696748</v>
+        <v>0.24536168878961082</v>
       </c>
       <c r="F162">
-        <v>0.19640084534970476</v>
+        <v>0.32117568690618359</v>
       </c>
       <c r="G162">
-        <v>0.21159172753888755</v>
+        <v>0.20945159691465837</v>
       </c>
       <c r="H162">
-        <v>0.13390197937122561</v>
+        <v>0.15258666197389015</v>
       </c>
       <c r="I162">
-        <v>0.28820631220086113</v>
+        <v>0.25694780982350096</v>
       </c>
       <c r="J162">
-        <v>0.14815076630244445</v>
+        <v>0.20249234599053687</v>
       </c>
       <c r="K162">
-        <v>0.75033443663401422</v>
+        <v>0.96804817340853933</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6034,31 +6034,31 @@
         <v>9</v>
       </c>
       <c r="C163">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D163">
         <v>8</v>
       </c>
       <c r="E163">
-        <v>0.19640084534970476</v>
+        <v>0.32117568690618359</v>
       </c>
       <c r="F163">
-        <v>0.21918061824699381</v>
+        <v>0.28388005829833629</v>
       </c>
       <c r="G163">
-        <v>0.28820631220086113</v>
+        <v>0.25694780982350096</v>
       </c>
       <c r="H163">
-        <v>0.14815076630244445</v>
+        <v>0.20249234599053687</v>
       </c>
       <c r="I163">
-        <v>0.3954303809936941</v>
+        <v>0.29646874452683319</v>
       </c>
       <c r="J163">
-        <v>0.25820951498824518</v>
+        <v>0.22086808603636254</v>
       </c>
       <c r="K163">
-        <v>0.80183139264125558</v>
+        <v>0.90957144389978084</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6069,31 +6069,31 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <v>11</v>
       </c>
       <c r="E164">
-        <v>0.21918061824699381</v>
+        <v>0.28388005829833629</v>
       </c>
       <c r="F164">
-        <v>0.16681517215320751</v>
+        <v>0.2616472976654261</v>
       </c>
       <c r="G164">
-        <v>0.3954303809936941</v>
+        <v>0.29646874452683319</v>
       </c>
       <c r="H164">
-        <v>0.25820951498824518</v>
+        <v>0.22086808603636254</v>
       </c>
       <c r="I164">
-        <v>0.38516283568735288</v>
+        <v>0.28279811222149709</v>
       </c>
       <c r="J164">
-        <v>0.23190689981620136</v>
+        <v>0.21859339695774874</v>
       </c>
       <c r="K164">
-        <v>0.85041731493741657</v>
+        <v>0.88233140217535921</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6104,31 +6104,31 @@
         <v>9</v>
       </c>
       <c r="C165">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D165">
         <v>14</v>
       </c>
       <c r="E165">
-        <v>0.16681517215320751</v>
+        <v>0.2616472976654261</v>
       </c>
       <c r="F165">
-        <v>0.17959014794196954</v>
+        <v>0.23485667892359477</v>
       </c>
       <c r="G165">
-        <v>0.38516283568735288</v>
+        <v>0.28279811222149709</v>
       </c>
       <c r="H165">
-        <v>0.23190689981620136</v>
+        <v>0.21859339695774874</v>
       </c>
       <c r="I165">
-        <v>0.32791749736154485</v>
+        <v>0.24241866015370056</v>
       </c>
       <c r="J165">
-        <v>0.21576667676394679</v>
+        <v>0.18321457739532926</v>
       </c>
       <c r="K165">
-        <v>0.91173721115833894</v>
+        <v>0.85458892595542901</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6139,31 +6139,31 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>17</v>
       </c>
       <c r="E166">
-        <v>0.17959014794196954</v>
+        <v>0.23485667892359477</v>
       </c>
       <c r="F166">
-        <v>0.2338559695887146</v>
+        <v>0.22983978519407822</v>
       </c>
       <c r="G166">
-        <v>0.32791749736154485</v>
+        <v>0.24241866015370056</v>
       </c>
       <c r="H166">
-        <v>0.21576667676394679</v>
+        <v>0.18321457739532926</v>
       </c>
       <c r="I166">
-        <v>0.3211924248871334</v>
+        <v>0.19652853596582645</v>
       </c>
       <c r="J166">
-        <v>0.24615018287052329</v>
+        <v>0.126828407895271</v>
       </c>
       <c r="K166">
-        <v>0.89515622886266555</v>
+        <v>0.83451039793104176</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6174,31 +6174,31 @@
         <v>9</v>
       </c>
       <c r="C167">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D167">
         <v>20</v>
       </c>
       <c r="E167">
-        <v>0.2338559695887146</v>
+        <v>0.22983978519407822</v>
       </c>
       <c r="F167">
-        <v>0.29224408093819026</v>
+        <v>0.19579396628956144</v>
       </c>
       <c r="G167">
-        <v>0.3211924248871334</v>
+        <v>0.19652853596582645</v>
       </c>
       <c r="H167">
-        <v>0.24615018287052329</v>
+        <v>0.126828407895271</v>
       </c>
       <c r="I167">
-        <v>0.3416949228239004</v>
+        <v>0.17997090490270212</v>
       </c>
       <c r="J167">
-        <v>0.231564498999904</v>
+        <v>9.6360482072955E-2</v>
       </c>
       <c r="K167">
-        <v>0.8999771741444309</v>
+        <v>0.80575494167325901</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6209,31 +6209,31 @@
         <v>9</v>
       </c>
       <c r="C168">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D168">
         <v>23</v>
       </c>
       <c r="E168">
-        <v>0.29224408093819026</v>
+        <v>0.19579396628956144</v>
       </c>
       <c r="F168">
-        <v>0.29009636800306765</v>
+        <v>0.18025987590764139</v>
       </c>
       <c r="G168">
-        <v>0.3416949228239004</v>
+        <v>0.17997090490270212</v>
       </c>
       <c r="H168">
-        <v>0.231564498999904</v>
+        <v>9.6360482072955E-2</v>
       </c>
       <c r="I168">
-        <v>0.3454168958946075</v>
+        <v>0.16449222089887988</v>
       </c>
       <c r="J168">
-        <v>0.20353466766460454</v>
+        <v>7.8670118885039594E-2</v>
       </c>
       <c r="K168">
-        <v>0.88492955160644993</v>
+        <v>0.85873957533248313</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6244,31 +6244,31 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0.29009636800306765</v>
+        <v>0.18025987590764139</v>
       </c>
       <c r="F169">
-        <v>0.21777491745836272</v>
+        <v>0.33248502467377394</v>
       </c>
       <c r="G169">
-        <v>0.3454168958946075</v>
+        <v>0.16449222089887988</v>
       </c>
       <c r="H169">
-        <v>0.20353466766460454</v>
+        <v>7.8670118885039594E-2</v>
       </c>
       <c r="I169">
-        <v>0.23014912395175602</v>
+        <v>0.22559234938350065</v>
       </c>
       <c r="J169">
-        <v>0.14731465030067625</v>
+        <v>0.12022560310068618</v>
       </c>
       <c r="K169">
-        <v>0.89099138978281811</v>
+        <v>0.85564157090273918</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -6279,31 +6279,31 @@
         <v>9</v>
       </c>
       <c r="C170">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>0.21777491745836272</v>
+        <v>0.33248502467377394</v>
       </c>
       <c r="F170">
-        <v>0.29493181382437056</v>
+        <v>0.38418543479163397</v>
       </c>
       <c r="G170">
-        <v>0.23014912395175602</v>
+        <v>0.22559234938350065</v>
       </c>
       <c r="H170">
-        <v>0.14731465030067625</v>
+        <v>0.12022560310068618</v>
       </c>
       <c r="I170">
-        <v>0.35390709701506751</v>
+        <v>0.26451170146711422</v>
       </c>
       <c r="J170">
-        <v>0.29065353196104116</v>
+        <v>0.15057429284039833</v>
       </c>
       <c r="K170">
-        <v>0.90520629069658154</v>
+        <v>0.9582278604164336</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,31 +6314,31 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
       <c r="E171">
-        <v>0.29493181382437056</v>
+        <v>0.38418543479163397</v>
       </c>
       <c r="F171">
-        <v>0.35150199541494209</v>
+        <v>0.39110752945972804</v>
       </c>
       <c r="G171">
-        <v>0.35390709701506751</v>
+        <v>0.26451170146711422</v>
       </c>
       <c r="H171">
-        <v>0.29065353196104116</v>
+        <v>0.15057429284039833</v>
       </c>
       <c r="I171">
-        <v>0.44219178778969115</v>
+        <v>0.34739700858605771</v>
       </c>
       <c r="J171">
-        <v>0.37212886296055625</v>
+        <v>0.2508722019415216</v>
       </c>
       <c r="K171">
-        <v>0.93560714030973668</v>
+        <v>0.94256161238678582</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6349,31 +6349,31 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>11</v>
       </c>
       <c r="E172">
-        <v>0.35150199541494209</v>
+        <v>0.39110752945972804</v>
       </c>
       <c r="F172">
-        <v>0.40817111195837913</v>
+        <v>0.3723114425880899</v>
       </c>
       <c r="G172">
-        <v>0.44219178778969115</v>
+        <v>0.34739700858605771</v>
       </c>
       <c r="H172">
-        <v>0.37212886296055625</v>
+        <v>0.2508722019415216</v>
       </c>
       <c r="I172">
-        <v>0.49313818348737426</v>
+        <v>0.34761335989218067</v>
       </c>
       <c r="J172">
-        <v>0.42491639311856699</v>
+        <v>0.28427049226666523</v>
       </c>
       <c r="K172">
-        <v>0.9599917445932955</v>
+        <v>0.93371490217439823</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6384,31 +6384,31 @@
         <v>9</v>
       </c>
       <c r="C173">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D173">
         <v>14</v>
       </c>
       <c r="E173">
-        <v>0.40817111195837913</v>
+        <v>0.3723114425880899</v>
       </c>
       <c r="F173">
-        <v>0.42663072524720652</v>
+        <v>0.28745891123412903</v>
       </c>
       <c r="G173">
-        <v>0.49313818348737426</v>
+        <v>0.34761335989218067</v>
       </c>
       <c r="H173">
-        <v>0.42491639311856699</v>
+        <v>0.28427049226666523</v>
       </c>
       <c r="I173">
-        <v>0.45411341334383004</v>
+        <v>0.32823420663827385</v>
       </c>
       <c r="J173">
-        <v>0.40133342765019647</v>
+        <v>0.24376195769094439</v>
       </c>
       <c r="K173">
-        <v>0.96084921726377082</v>
+        <v>0.92443278153938813</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -6419,31 +6419,31 @@
         <v>9</v>
       </c>
       <c r="C174">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D174">
         <v>17</v>
       </c>
       <c r="E174">
-        <v>0.42663072524720652</v>
+        <v>0.28745891123412903</v>
       </c>
       <c r="F174">
-        <v>0.40436211627305602</v>
+        <v>0.2765354883688092</v>
       </c>
       <c r="G174">
-        <v>0.45411341334383004</v>
+        <v>0.32823420663827385</v>
       </c>
       <c r="H174">
-        <v>0.40133342765019647</v>
+        <v>0.24376195769094439</v>
       </c>
       <c r="I174">
-        <v>0.42246675863912669</v>
+        <v>0.30801357184466394</v>
       </c>
       <c r="J174">
-        <v>0.36409409955830735</v>
+        <v>0.23407235915899596</v>
       </c>
       <c r="K174">
-        <v>0.95161897334706669</v>
+        <v>0.9102862535967704</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -6454,31 +6454,31 @@
         <v>9</v>
       </c>
       <c r="C175">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D175">
         <v>20</v>
       </c>
       <c r="E175">
-        <v>0.40436211627305602</v>
+        <v>0.2765354883688092</v>
       </c>
       <c r="F175">
-        <v>0.35893036145926255</v>
+        <v>0.26210633328602156</v>
       </c>
       <c r="G175">
-        <v>0.42246675863912669</v>
+        <v>0.30801357184466394</v>
       </c>
       <c r="H175">
-        <v>0.36409409955830735</v>
+        <v>0.23407235915899596</v>
       </c>
       <c r="I175">
-        <v>0.38243222760035905</v>
+        <v>0.27351866798927243</v>
       </c>
       <c r="J175">
-        <v>0.30965077426001403</v>
+        <v>0.18331418779645667</v>
       </c>
       <c r="K175">
-        <v>0.94735525493309469</v>
+        <v>0.90573586143407037</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6489,31 +6489,31 @@
         <v>9</v>
       </c>
       <c r="C176">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D176">
         <v>23</v>
       </c>
       <c r="E176">
-        <v>0.35893036145926255</v>
+        <v>0.26210633328602156</v>
       </c>
       <c r="F176">
-        <v>0.31766211924522691</v>
+        <v>0.23895550141192046</v>
       </c>
       <c r="G176">
-        <v>0.38243222760035905</v>
+        <v>0.27351866798927243</v>
       </c>
       <c r="H176">
-        <v>0.30965077426001403</v>
+        <v>0.18331418779645667</v>
       </c>
       <c r="I176">
-        <v>0.29172914154234164</v>
+        <v>0.20577960771533815</v>
       </c>
       <c r="J176">
-        <v>0.21386875757913132</v>
+        <v>7.4983566080558312E-2</v>
       </c>
       <c r="K176">
-        <v>0.91623385094654042</v>
+        <v>0.76863293672597255</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -6524,31 +6524,31 @@
         <v>9</v>
       </c>
       <c r="C177">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0.31766211924522691</v>
+        <v>0.23895550141192046</v>
       </c>
       <c r="F177">
-        <v>0.15010340969833788</v>
+        <v>8.9781111504789457E-2</v>
       </c>
       <c r="G177">
-        <v>0.29172914154234164</v>
+        <v>0.20577960771533815</v>
       </c>
       <c r="H177">
-        <v>0.21386875757913132</v>
+        <v>7.4983566080558312E-2</v>
       </c>
       <c r="I177">
-        <v>0.1485708825437729</v>
+        <v>0.11391364122118346</v>
       </c>
       <c r="J177">
-        <v>8.1212137353452798E-2</v>
+        <v>2.7025110080754741E-2</v>
       </c>
       <c r="K177">
-        <v>0.84437752191473647</v>
+        <v>0.5946137368100729</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6559,31 +6559,31 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="E178">
-        <v>0.15010340969833788</v>
+        <v>8.9781111504789457E-2</v>
       </c>
       <c r="F178">
-        <v>0.1907162078496393</v>
+        <v>0.18466743031778349</v>
       </c>
       <c r="G178">
-        <v>0.1485708825437729</v>
+        <v>0.11391364122118346</v>
       </c>
       <c r="H178">
-        <v>8.1212137353452798E-2</v>
+        <v>2.7025110080754741E-2</v>
       </c>
       <c r="I178">
-        <v>0.24974779937491556</v>
+        <v>0.14640382584234357</v>
       </c>
       <c r="J178">
-        <v>0.18117044321494774</v>
+        <v>9.5062293386646041E-2</v>
       </c>
       <c r="K178">
-        <v>0.88027993761438827</v>
+        <v>0.69211443670058548</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -6594,31 +6594,31 @@
         <v>9</v>
       </c>
       <c r="C179">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179">
-        <v>0.1907162078496393</v>
+        <v>0.18466743031778349</v>
       </c>
       <c r="F179">
-        <v>0.17362519474211843</v>
+        <v>0.14551534791690854</v>
       </c>
       <c r="G179">
-        <v>0.24974779937491556</v>
+        <v>0.14640382584234357</v>
       </c>
       <c r="H179">
-        <v>0.18117044321494774</v>
+        <v>9.5062293386646041E-2</v>
       </c>
       <c r="I179">
-        <v>0.28693282836529149</v>
+        <v>0.20055529613265791</v>
       </c>
       <c r="J179">
-        <v>0.21518805508164685</v>
+        <v>6.3459290442743593E-2</v>
       </c>
       <c r="K179">
-        <v>0.92701341610499521</v>
+        <v>0.63714663309523756</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -6629,31 +6629,31 @@
         <v>9</v>
       </c>
       <c r="C180">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D180">
         <v>11</v>
       </c>
       <c r="E180">
-        <v>0.17362519474211843</v>
+        <v>0.14551534791690854</v>
       </c>
       <c r="F180">
-        <v>0.25430252651425822</v>
+        <v>0.16353554272187651</v>
       </c>
       <c r="G180">
-        <v>0.28693282836529149</v>
+        <v>0.20055529613265791</v>
       </c>
       <c r="H180">
-        <v>0.21518805508164685</v>
+        <v>6.3459290442743593E-2</v>
       </c>
       <c r="I180">
-        <v>0.34918754247632167</v>
+        <v>0.24422281624874217</v>
       </c>
       <c r="J180">
-        <v>0.26836463202575811</v>
+        <v>8.9083081249937357E-2</v>
       </c>
       <c r="K180">
-        <v>0.94452639226761503</v>
+        <v>0.57824856449974327</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -6664,31 +6664,31 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D181">
         <v>14</v>
       </c>
       <c r="E181">
-        <v>0.25430252651425822</v>
+        <v>0.16353554272187651</v>
       </c>
       <c r="F181">
-        <v>0.23102395656293873</v>
+        <v>0.11283444908779061</v>
       </c>
       <c r="G181">
-        <v>0.34918754247632167</v>
+        <v>0.24422281624874217</v>
       </c>
       <c r="H181">
-        <v>0.26836463202575811</v>
+        <v>8.9083081249937357E-2</v>
       </c>
       <c r="I181">
-        <v>0.33054336301326731</v>
+        <v>0.23546419179221051</v>
       </c>
       <c r="J181">
-        <v>0.25626445981078266</v>
+        <v>7.9580948432986659E-2</v>
       </c>
       <c r="K181">
-        <v>0.95932819667299174</v>
+        <v>0.64235348769129763</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -6699,31 +6699,31 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D182">
         <v>17</v>
       </c>
       <c r="E182">
-        <v>0.23102395656293873</v>
+        <v>0.11283444908779061</v>
       </c>
       <c r="F182">
-        <v>0.25417473553347353</v>
+        <v>0.21558936964497374</v>
       </c>
       <c r="G182">
-        <v>0.33054336301326731</v>
+        <v>0.23546419179221051</v>
       </c>
       <c r="H182">
-        <v>0.25626445981078266</v>
+        <v>7.9580948432986659E-2</v>
       </c>
       <c r="I182">
-        <v>0.29395523862771389</v>
+        <v>0.37219727286077486</v>
       </c>
       <c r="J182">
-        <v>0.22523402266615095</v>
+        <v>0.11075246052578983</v>
       </c>
       <c r="K182">
-        <v>0.93676940947149601</v>
+        <v>0.67452932289008283</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -6734,31 +6734,31 @@
         <v>9</v>
       </c>
       <c r="C183">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D183">
         <v>20</v>
       </c>
       <c r="E183">
-        <v>0.25417473553347353</v>
+        <v>0.21558936964497374</v>
       </c>
       <c r="F183">
-        <v>0.24530356809319737</v>
+        <v>0.3417551068525243</v>
       </c>
       <c r="G183">
-        <v>0.29395523862771389</v>
+        <v>0.37219727286077486</v>
       </c>
       <c r="H183">
-        <v>0.22523402266615095</v>
+        <v>0.11075246052578983</v>
       </c>
       <c r="I183">
-        <v>0.19791476387426038</v>
+        <v>0.44293750542489985</v>
       </c>
       <c r="J183">
-        <v>0.13559337369083091</v>
+        <v>0.19848054765059853</v>
       </c>
       <c r="K183">
-        <v>0.89701333466417887</v>
+        <v>0.78527262078350191</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -6769,31 +6769,31 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D184">
         <v>23</v>
       </c>
       <c r="E184">
-        <v>0.24530356809319737</v>
+        <v>0.3417551068525243</v>
       </c>
       <c r="F184">
-        <v>6.615297990223E-2</v>
+        <v>0.39013664881085808</v>
       </c>
       <c r="G184">
-        <v>0.19791476387426038</v>
+        <v>0.44293750542489985</v>
       </c>
       <c r="H184">
-        <v>0.13559337369083091</v>
+        <v>0.19848054765059853</v>
       </c>
       <c r="I184">
-        <v>0.13928391175289065</v>
+        <v>0.43436399298496947</v>
       </c>
       <c r="J184">
-        <v>5.4138732259348038E-2</v>
+        <v>0.30571440996407434</v>
       </c>
       <c r="K184">
-        <v>0.55710718971622575</v>
+        <v>0.82186369886474342</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -6804,31 +6804,31 @@
         <v>9</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D185">
         <v>2</v>
       </c>
       <c r="E185">
-        <v>6.615297990223E-2</v>
+        <v>0.39013664881085808</v>
       </c>
       <c r="F185">
-        <v>6.0414752636029065E-2</v>
+        <v>0.25924243848496148</v>
       </c>
       <c r="G185">
-        <v>0.13928391175289065</v>
+        <v>0.43436399298496947</v>
       </c>
       <c r="H185">
-        <v>5.4138732259348038E-2</v>
+        <v>0.30571440996407434</v>
       </c>
       <c r="I185">
-        <v>0.11539964388742127</v>
+        <v>0.40964016536357606</v>
       </c>
       <c r="J185">
-        <v>5.6097647894014856E-2</v>
+        <v>0.20376815635029935</v>
       </c>
       <c r="K185">
-        <v>0.31713234228756071</v>
+        <v>0.895252758072272</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -6839,31 +6839,31 @@
         <v>9</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="E186">
-        <v>6.0414752636029065E-2</v>
+        <v>0.25924243848496148</v>
       </c>
       <c r="F186">
-        <v>0.11352221087630686</v>
+        <v>0.31809649221227787</v>
       </c>
       <c r="G186">
-        <v>0.11539964388742127</v>
+        <v>0.40964016536357606</v>
       </c>
       <c r="H186">
-        <v>5.6097647894014856E-2</v>
+        <v>0.20376815635029935</v>
       </c>
       <c r="I186">
-        <v>0.22365053330970802</v>
+        <v>0.4341471643986885</v>
       </c>
       <c r="J186">
-        <v>0.15413531297370123</v>
+        <v>0.357519265668438</v>
       </c>
       <c r="K186">
-        <v>0.40456391305758865</v>
+        <v>0.9132035973291186</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -6874,31 +6874,31 @@
         <v>9</v>
       </c>
       <c r="C187">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>8</v>
       </c>
       <c r="E187">
-        <v>0.11352221087630686</v>
+        <v>0.31809649221227787</v>
       </c>
       <c r="F187">
-        <v>0.17009239246687832</v>
+        <v>0.31356706993826094</v>
       </c>
       <c r="G187">
-        <v>0.22365053330970802</v>
+        <v>0.4341471643986885</v>
       </c>
       <c r="H187">
-        <v>0.15413531297370123</v>
+        <v>0.357519265668438</v>
       </c>
       <c r="I187">
-        <v>0.24504515380410505</v>
+        <v>0.47934798500368869</v>
       </c>
       <c r="J187">
-        <v>0.15598927522672235</v>
+        <v>0.40204926065309238</v>
       </c>
       <c r="K187">
-        <v>0.65625900753984523</v>
+        <v>0.94470487978610129</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -6909,31 +6909,31 @@
         <v>9</v>
       </c>
       <c r="C188">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D188">
         <v>11</v>
       </c>
       <c r="E188">
-        <v>0.17009239246687832</v>
+        <v>0.31356706993826094</v>
       </c>
       <c r="F188">
-        <v>0.19289689910238378</v>
+        <v>0.51894691866449394</v>
       </c>
       <c r="G188">
-        <v>0.24504515380410505</v>
+        <v>0.47934798500368869</v>
       </c>
       <c r="H188">
-        <v>0.15598927522672235</v>
+        <v>0.40204926065309238</v>
       </c>
       <c r="I188">
-        <v>0.22325408190155255</v>
+        <v>0.4856233398312616</v>
       </c>
       <c r="J188">
-        <v>0.15220461981334205</v>
+        <v>0.43302711361427199</v>
       </c>
       <c r="K188">
-        <v>0.8211930379397171</v>
+        <v>0.94469671755806739</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -6944,31 +6944,31 @@
         <v>9</v>
       </c>
       <c r="C189">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D189">
         <v>14</v>
       </c>
       <c r="E189">
-        <v>0.19289689910238378</v>
+        <v>0.51894691866449394</v>
       </c>
       <c r="F189">
-        <v>0.21533452195434619</v>
+        <v>0.5631849532510812</v>
       </c>
       <c r="G189">
-        <v>0.22325408190155255</v>
+        <v>0.4856233398312616</v>
       </c>
       <c r="H189">
-        <v>0.15220461981334205</v>
+        <v>0.43302711361427199</v>
       </c>
       <c r="I189">
-        <v>0.24456077540049326</v>
+        <v>0.51227741890281508</v>
       </c>
       <c r="J189">
-        <v>0.15369747444937981</v>
+        <v>0.46993737621801968</v>
       </c>
       <c r="K189">
-        <v>0.9440005555763884</v>
+        <v>0.94309704430044072</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -6979,31 +6979,31 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D190">
         <v>17</v>
       </c>
       <c r="E190">
-        <v>0.21533452195434619</v>
+        <v>0.5631849532510812</v>
       </c>
       <c r="F190">
-        <v>0.19629366581743374</v>
+        <v>0.57289375973978118</v>
       </c>
       <c r="G190">
-        <v>0.24456077540049326</v>
+        <v>0.51227741890281508</v>
       </c>
       <c r="H190">
-        <v>0.15369747444937981</v>
+        <v>0.46993737621801968</v>
       </c>
       <c r="I190">
-        <v>0.22288583333790773</v>
+        <v>0.4905567495308123</v>
       </c>
       <c r="J190">
-        <v>0.15615758799742771</v>
+        <v>0.45144740322900467</v>
       </c>
       <c r="K190">
-        <v>0.91755030442860785</v>
+        <v>0.94709190129914389</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7014,31 +7014,31 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D191">
         <v>20</v>
       </c>
       <c r="E191">
-        <v>0.19629366581743374</v>
+        <v>0.57289375973978118</v>
       </c>
       <c r="F191">
-        <v>0.19819816366009529</v>
+        <v>0.48124912610585946</v>
       </c>
       <c r="G191">
-        <v>0.22288583333790773</v>
+        <v>0.4905567495308123</v>
       </c>
       <c r="H191">
-        <v>0.15615758799742771</v>
+        <v>0.45144740322900467</v>
       </c>
       <c r="I191">
-        <v>0.13319461736810204</v>
+        <v>0.41029053656106007</v>
       </c>
       <c r="J191">
-        <v>8.9986497375144747E-2</v>
+        <v>0.37110635958534499</v>
       </c>
       <c r="K191">
-        <v>0.85028051355417344</v>
+        <v>0.95667672331487197</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7049,31 +7049,31 @@
         <v>9</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D192">
         <v>23</v>
       </c>
       <c r="E192">
-        <v>0.19819816366009529</v>
+        <v>0.48124912610585946</v>
       </c>
       <c r="F192">
-        <v>0.1363514512500287</v>
+        <v>0.41799970475478843</v>
       </c>
       <c r="G192">
-        <v>0.13319461736810204</v>
+        <v>0.41029053656106007</v>
       </c>
       <c r="H192">
-        <v>8.9986497375144747E-2</v>
+        <v>0.37110635958534499</v>
       </c>
       <c r="I192">
-        <v>9.7205433253183093E-2</v>
+        <v>0.43786710966815817</v>
       </c>
       <c r="J192">
-        <v>4.1660417264912403E-2</v>
+        <v>0.35157082755549823</v>
       </c>
       <c r="K192">
-        <v>0.62546488719966942</v>
+        <v>0.96452067632161831</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7084,31 +7084,31 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D193">
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0.1363514512500287</v>
+        <v>0.41799970475478843</v>
       </c>
       <c r="F193">
-        <v>7.0440161193069797E-2</v>
+        <v>0.28992064208440194</v>
       </c>
       <c r="G193">
-        <v>9.7205433253183093E-2</v>
+        <v>0.43786710966815817</v>
       </c>
       <c r="H193">
-        <v>4.1660417264912403E-2</v>
+        <v>0.35157082755549823</v>
       </c>
       <c r="I193">
-        <v>0.1443972900088529</v>
+        <v>0.38663750323404228</v>
       </c>
       <c r="J193">
-        <v>7.7317054899446791E-2</v>
+        <v>0.30830496037394994</v>
       </c>
       <c r="K193">
-        <v>0.36668180140215184</v>
+        <v>0.95932390681264157</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7119,31 +7119,31 @@
         <v>9</v>
       </c>
       <c r="C194">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D194">
         <v>5</v>
       </c>
       <c r="E194">
-        <v>7.0440161193069797E-2</v>
+        <v>0.28992064208440194</v>
       </c>
       <c r="F194">
-        <v>4.7718100351618942E-2</v>
+        <v>0.47434328048628205</v>
       </c>
       <c r="G194">
-        <v>0.1443972900088529</v>
+        <v>0.38663750323404228</v>
       </c>
       <c r="H194">
-        <v>7.7317054899446791E-2</v>
+        <v>0.30830496037394994</v>
       </c>
       <c r="I194">
-        <v>0.1191263327719439</v>
+        <v>0.4152610872448107</v>
       </c>
       <c r="J194">
-        <v>7.3585534522909904E-2</v>
+        <v>0.31642638151713826</v>
       </c>
       <c r="K194">
-        <v>0.49568651173966299</v>
+        <v>0.96622294793074792</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7154,31 +7154,31 @@
         <v>9</v>
       </c>
       <c r="C195">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>4.7718100351618942E-2</v>
+        <v>0.47434328048628205</v>
       </c>
       <c r="F195">
-        <v>6.7476234896806514E-2</v>
+        <v>0.4151967438856658</v>
       </c>
       <c r="G195">
-        <v>0.1191263327719439</v>
+        <v>0.4152610872448107</v>
       </c>
       <c r="H195">
-        <v>7.3585534522909904E-2</v>
+        <v>0.31642638151713826</v>
       </c>
       <c r="I195">
-        <v>0.1559170372428848</v>
+        <v>0.43096344411506532</v>
       </c>
       <c r="J195">
-        <v>8.0649777588097812E-2</v>
+        <v>0.33072930469092321</v>
       </c>
       <c r="K195">
-        <v>0.55687590382328367</v>
+        <v>0.95262782704427118</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7189,31 +7189,31 @@
         <v>9</v>
       </c>
       <c r="C196">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D196">
         <v>11</v>
       </c>
       <c r="E196">
-        <v>6.7476234896806514E-2</v>
+        <v>0.4151967438856658</v>
       </c>
       <c r="F196">
-        <v>0.14514017289625028</v>
+        <v>0.52719331078669518</v>
       </c>
       <c r="G196">
-        <v>0.1559170372428848</v>
+        <v>0.43096344411506532</v>
       </c>
       <c r="H196">
-        <v>8.0649777588097812E-2</v>
+        <v>0.33072930469092321</v>
       </c>
       <c r="I196">
-        <v>0.19491626591070693</v>
+        <v>0.4351189866358669</v>
       </c>
       <c r="J196">
-        <v>0.1045670336399076</v>
+        <v>0.3847525820286834</v>
       </c>
       <c r="K196">
-        <v>0.76360345072072711</v>
+        <v>0.94922294354218084</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -7224,31 +7224,31 @@
         <v>9</v>
       </c>
       <c r="C197">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D197">
         <v>14</v>
       </c>
       <c r="E197">
-        <v>0.14514017289625028</v>
+        <v>0.52719331078669518</v>
       </c>
       <c r="F197">
-        <v>0.19893605351688406</v>
+        <v>0.4863269537673135</v>
       </c>
       <c r="G197">
-        <v>0.19491626591070693</v>
+        <v>0.4351189866358669</v>
       </c>
       <c r="H197">
-        <v>0.1045670336399076</v>
+        <v>0.3847525820286834</v>
       </c>
       <c r="I197">
-        <v>0.19526867468948148</v>
+        <v>0.45424088387780892</v>
       </c>
       <c r="J197">
-        <v>0.11790546240968872</v>
+        <v>0.38341477617460562</v>
       </c>
       <c r="K197">
-        <v>0.88151948303022354</v>
+        <v>0.94201738057710349</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7259,31 +7259,31 @@
         <v>9</v>
       </c>
       <c r="C198">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D198">
         <v>17</v>
       </c>
       <c r="E198">
-        <v>0.19893605351688406</v>
+        <v>0.4863269537673135</v>
       </c>
       <c r="F198">
-        <v>0.14453831859965161</v>
+        <v>0.50862877285641939</v>
       </c>
       <c r="G198">
-        <v>0.19526867468948148</v>
+        <v>0.45424088387780892</v>
       </c>
       <c r="H198">
-        <v>0.11790546240968872</v>
+        <v>0.38341477617460562</v>
       </c>
       <c r="I198">
-        <v>0.16598290404958777</v>
+        <v>0.47845655413333787</v>
       </c>
       <c r="J198">
-        <v>9.5065657485658248E-2</v>
+        <v>0.40713419177030563</v>
       </c>
       <c r="K198">
-        <v>0.87105494224127156</v>
+        <v>0.9362843291260079</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7294,31 +7294,31 @@
         <v>9</v>
       </c>
       <c r="C199">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D199">
         <v>20</v>
       </c>
       <c r="E199">
-        <v>0.14453831859965161</v>
+        <v>0.50862877285641939</v>
       </c>
       <c r="F199">
-        <v>0.1123803366286505</v>
+        <v>0.37860388662616368</v>
       </c>
       <c r="G199">
-        <v>0.16598290404958777</v>
+        <v>0.47845655413333787</v>
       </c>
       <c r="H199">
-        <v>9.5065657485658248E-2</v>
+        <v>0.40713419177030563</v>
       </c>
       <c r="I199">
-        <v>0.10212872830536071</v>
+        <v>0.41873599255660504</v>
       </c>
       <c r="J199">
-        <v>5.0205659392968019E-2</v>
+        <v>0.32864745921191041</v>
       </c>
       <c r="K199">
-        <v>0.8004648500228515</v>
+        <v>0.90362433589499491</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7329,31 +7329,31 @@
         <v>9</v>
       </c>
       <c r="C200">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D200">
         <v>23</v>
       </c>
       <c r="E200">
-        <v>0.1123803366286505</v>
+        <v>0.37860388662616368</v>
       </c>
       <c r="F200">
-        <v>0.12489148587643777</v>
+        <v>0.42015270368324492</v>
       </c>
       <c r="G200">
-        <v>0.10212872830536071</v>
+        <v>0.41873599255660504</v>
       </c>
       <c r="H200">
-        <v>5.0205659392968019E-2</v>
+        <v>0.32864745921191041</v>
       </c>
       <c r="I200">
-        <v>0.12896366364368544</v>
+        <v>0.37686274549816101</v>
       </c>
       <c r="J200">
-        <v>6.6995503023813463E-2</v>
+        <v>0.25653332353244995</v>
       </c>
       <c r="K200">
-        <v>0.63211048916987356</v>
+        <v>0.83990971290521022</v>
       </c>
     </row>
   </sheetData>
